--- a/words.xlsx
+++ b/words.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="361">
   <si>
     <t>Rodzaj</t>
   </si>
@@ -988,13 +988,121 @@
   </si>
   <si>
     <t>en äggröra</t>
+  </si>
+  <si>
+    <t>przestraszony</t>
+  </si>
+  <si>
+    <t>rädd</t>
+  </si>
+  <si>
+    <t>biurko</t>
+  </si>
+  <si>
+    <t>skrivbord</t>
+  </si>
+  <si>
+    <t>przystanek pociagowy</t>
+  </si>
+  <si>
+    <t>tågstation</t>
+  </si>
+  <si>
+    <t>lot</t>
+  </si>
+  <si>
+    <t>flyg</t>
+  </si>
+  <si>
+    <t>kalafior</t>
+  </si>
+  <si>
+    <t>blomkål</t>
+  </si>
+  <si>
+    <t>naczynie</t>
+  </si>
+  <si>
+    <t>fat</t>
+  </si>
+  <si>
+    <t>kogut</t>
+  </si>
+  <si>
+    <t>tupp</t>
+  </si>
+  <si>
+    <t>ząb</t>
+  </si>
+  <si>
+    <t>tand</t>
+  </si>
+  <si>
+    <t>twardy</t>
+  </si>
+  <si>
+    <t>hård</t>
+  </si>
+  <si>
+    <t>metro</t>
+  </si>
+  <si>
+    <t>tunnelbana</t>
+  </si>
+  <si>
+    <t>herbata ziołowa</t>
+  </si>
+  <si>
+    <t>örtté</t>
+  </si>
+  <si>
+    <t>przewodnik</t>
+  </si>
+  <si>
+    <t>guidebok</t>
+  </si>
+  <si>
+    <t>zachód</t>
+  </si>
+  <si>
+    <t>väst</t>
+  </si>
+  <si>
+    <t>szczery</t>
+  </si>
+  <si>
+    <t>ärlig</t>
+  </si>
+  <si>
+    <t>mleko</t>
+  </si>
+  <si>
+    <t>mjölk</t>
+  </si>
+  <si>
+    <t>ocean</t>
+  </si>
+  <si>
+    <t>hav</t>
+  </si>
+  <si>
+    <t>łazienka</t>
+  </si>
+  <si>
+    <t>badrum</t>
+  </si>
+  <si>
+    <t>lodowka</t>
+  </si>
+  <si>
+    <t>kylskåp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="9">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1002,14 +1110,10 @@
     </font>
     <font>
       <b/>
-    </font>
-    <font>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
-      <b/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -1047,7 +1151,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1057,23 +1161,17 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -1315,10 +1413,10 @@
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1326,16 +1424,4240 @@
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="3"/>
+      <c r="B88" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="3"/>
+      <c r="B90" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="3"/>
+      <c r="B93" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="3"/>
+      <c r="B94" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="3"/>
+      <c r="B95" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="3"/>
+      <c r="B97" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="3"/>
+      <c r="B99" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="3"/>
+      <c r="B100" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="3"/>
+      <c r="B101" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="3"/>
+      <c r="B102" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="3"/>
+      <c r="B103" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="3"/>
+      <c r="B104" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="3"/>
+      <c r="B105" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="3"/>
+      <c r="B106" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="3"/>
+      <c r="B107" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="3"/>
+      <c r="B108" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="3"/>
+      <c r="B109" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="3"/>
+      <c r="B110" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="3"/>
+      <c r="B111" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="3"/>
+      <c r="B112" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="3"/>
+      <c r="B113" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="3"/>
+      <c r="B114" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="3"/>
+      <c r="B115" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="3"/>
+      <c r="B116" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="3"/>
+      <c r="B118" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="3"/>
+      <c r="B119" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="3"/>
+      <c r="B120" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="3"/>
+      <c r="B121" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="3"/>
+      <c r="B122" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="3"/>
+      <c r="B123" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="3"/>
+      <c r="B124" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="3"/>
+      <c r="B125" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="3"/>
+      <c r="B126" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="3"/>
+      <c r="B127" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="3"/>
+      <c r="B128" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="3"/>
+      <c r="B129" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="3"/>
+      <c r="B130" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="3"/>
+      <c r="B131" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="3"/>
+      <c r="B132" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="3"/>
+      <c r="B133" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="3"/>
+      <c r="B134" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="3"/>
+      <c r="B135" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="3"/>
+      <c r="B136" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="3"/>
+      <c r="B137" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="3"/>
+      <c r="B138" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="3"/>
+      <c r="B139" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="3"/>
+      <c r="B140" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="3"/>
+      <c r="B141" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C141" s="6" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="3"/>
+      <c r="B142" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="3"/>
+      <c r="B143" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="3"/>
+      <c r="B144" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="3"/>
+      <c r="B145" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="3"/>
+      <c r="B146" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="3"/>
+      <c r="B147" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="3"/>
+      <c r="B148" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="3"/>
+      <c r="B149" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="3"/>
+      <c r="B150" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="3"/>
+      <c r="B151" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="3"/>
+      <c r="B152" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C152" s="7" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="3"/>
+      <c r="B153" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="3"/>
+      <c r="B154" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="3"/>
+      <c r="B155" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="3"/>
+      <c r="B156" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="3"/>
+      <c r="B157" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="3"/>
+      <c r="B158" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="3"/>
+      <c r="B159" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="3"/>
+      <c r="B160" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="3"/>
+      <c r="B161" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="3"/>
+      <c r="B162" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="3"/>
+      <c r="B163" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="3"/>
+      <c r="B164" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="3"/>
+      <c r="B165" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="3"/>
+      <c r="B166" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="3"/>
+      <c r="B167" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="3"/>
+      <c r="B168" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="3"/>
+      <c r="B169" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="3"/>
+      <c r="B170" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="3"/>
+      <c r="B171" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="3"/>
+      <c r="B172" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="3"/>
+      <c r="B173" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="3"/>
+      <c r="B174" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="3"/>
+      <c r="B175" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="3"/>
+      <c r="B176" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="3"/>
+      <c r="B177" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="3"/>
+      <c r="B178" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="3"/>
+      <c r="B179" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="3"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="3"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="3"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="3"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="3"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="3"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="3"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="3"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="3"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="3"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="3"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="3"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="3"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="3"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="3"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="3"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="3"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="3"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="3"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="3"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="3"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="3"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="3"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="3"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="3"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="3"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="3"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="3"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="3"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="3"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="3"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="3"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="3"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="3"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="3"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="3"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="3"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="3"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="3"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="3"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="3"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="3"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="3"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="3"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="3"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="3"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="3"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="3"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="3"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="3"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="3"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="3"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="3"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="3"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="3"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="3"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="3"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="3"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="3"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="3"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="3"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="3"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="3"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="3"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="3"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="3"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="3"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="3"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="3"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="3"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="3"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="3"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="3"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="3"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="3"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="3"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="3"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="3"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="3"/>
+    </row>
+    <row r="259">
+      <c r="A259" s="3"/>
+    </row>
+    <row r="260">
+      <c r="A260" s="3"/>
+    </row>
+    <row r="261">
+      <c r="A261" s="3"/>
+    </row>
+    <row r="262">
+      <c r="A262" s="3"/>
+    </row>
+    <row r="263">
+      <c r="A263" s="3"/>
+    </row>
+    <row r="264">
+      <c r="A264" s="3"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="3"/>
+    </row>
+    <row r="266">
+      <c r="A266" s="3"/>
+    </row>
+    <row r="267">
+      <c r="A267" s="3"/>
+    </row>
+    <row r="268">
+      <c r="A268" s="3"/>
+    </row>
+    <row r="269">
+      <c r="A269" s="3"/>
+    </row>
+    <row r="270">
+      <c r="A270" s="3"/>
+    </row>
+    <row r="271">
+      <c r="A271" s="3"/>
+    </row>
+    <row r="272">
+      <c r="A272" s="3"/>
+    </row>
+    <row r="273">
+      <c r="A273" s="3"/>
+    </row>
+    <row r="274">
+      <c r="A274" s="3"/>
+    </row>
+    <row r="275">
+      <c r="A275" s="3"/>
+    </row>
+    <row r="276">
+      <c r="A276" s="3"/>
+    </row>
+    <row r="277">
+      <c r="A277" s="3"/>
+    </row>
+    <row r="278">
+      <c r="A278" s="3"/>
+    </row>
+    <row r="279">
+      <c r="A279" s="3"/>
+    </row>
+    <row r="280">
+      <c r="A280" s="3"/>
+    </row>
+    <row r="281">
+      <c r="A281" s="3"/>
+    </row>
+    <row r="282">
+      <c r="A282" s="3"/>
+    </row>
+    <row r="283">
+      <c r="A283" s="3"/>
+    </row>
+    <row r="284">
+      <c r="A284" s="3"/>
+    </row>
+    <row r="285">
+      <c r="A285" s="3"/>
+    </row>
+    <row r="286">
+      <c r="A286" s="3"/>
+    </row>
+    <row r="287">
+      <c r="A287" s="3"/>
+    </row>
+    <row r="288">
+      <c r="A288" s="3"/>
+    </row>
+    <row r="289">
+      <c r="A289" s="3"/>
+    </row>
+    <row r="290">
+      <c r="A290" s="3"/>
+    </row>
+    <row r="291">
+      <c r="A291" s="3"/>
+    </row>
+    <row r="292">
+      <c r="A292" s="3"/>
+    </row>
+    <row r="293">
+      <c r="A293" s="3"/>
+    </row>
+    <row r="294">
+      <c r="A294" s="3"/>
+    </row>
+    <row r="295">
+      <c r="A295" s="3"/>
+    </row>
+    <row r="296">
+      <c r="A296" s="3"/>
+    </row>
+    <row r="297">
+      <c r="A297" s="3"/>
+    </row>
+    <row r="298">
+      <c r="A298" s="3"/>
+    </row>
+    <row r="299">
+      <c r="A299" s="3"/>
+    </row>
+    <row r="300">
+      <c r="A300" s="3"/>
+    </row>
+    <row r="301">
+      <c r="A301" s="3"/>
+    </row>
+    <row r="302">
+      <c r="A302" s="3"/>
+    </row>
+    <row r="303">
+      <c r="A303" s="3"/>
+    </row>
+    <row r="304">
+      <c r="A304" s="3"/>
+    </row>
+    <row r="305">
+      <c r="A305" s="3"/>
+    </row>
+    <row r="306">
+      <c r="A306" s="3"/>
+    </row>
+    <row r="307">
+      <c r="A307" s="3"/>
+    </row>
+    <row r="308">
+      <c r="A308" s="3"/>
+    </row>
+    <row r="309">
+      <c r="A309" s="3"/>
+    </row>
+    <row r="310">
+      <c r="A310" s="3"/>
+    </row>
+    <row r="311">
+      <c r="A311" s="3"/>
+    </row>
+    <row r="312">
+      <c r="A312" s="3"/>
+    </row>
+    <row r="313">
+      <c r="A313" s="3"/>
+    </row>
+    <row r="314">
+      <c r="A314" s="3"/>
+    </row>
+    <row r="315">
+      <c r="A315" s="3"/>
+    </row>
+    <row r="316">
+      <c r="A316" s="3"/>
+    </row>
+    <row r="317">
+      <c r="A317" s="3"/>
+    </row>
+    <row r="318">
+      <c r="A318" s="3"/>
+    </row>
+    <row r="319">
+      <c r="A319" s="3"/>
+    </row>
+    <row r="320">
+      <c r="A320" s="3"/>
+    </row>
+    <row r="321">
+      <c r="A321" s="3"/>
+    </row>
+    <row r="322">
+      <c r="A322" s="3"/>
+    </row>
+    <row r="323">
+      <c r="A323" s="3"/>
+    </row>
+    <row r="324">
+      <c r="A324" s="3"/>
+    </row>
+    <row r="325">
+      <c r="A325" s="3"/>
+    </row>
+    <row r="326">
+      <c r="A326" s="3"/>
+    </row>
+    <row r="327">
+      <c r="A327" s="3"/>
+    </row>
+    <row r="328">
+      <c r="A328" s="3"/>
+    </row>
+    <row r="329">
+      <c r="A329" s="3"/>
+    </row>
+    <row r="330">
+      <c r="A330" s="3"/>
+    </row>
+    <row r="331">
+      <c r="A331" s="3"/>
+    </row>
+    <row r="332">
+      <c r="A332" s="3"/>
+    </row>
+    <row r="333">
+      <c r="A333" s="3"/>
+    </row>
+    <row r="334">
+      <c r="A334" s="3"/>
+    </row>
+    <row r="335">
+      <c r="A335" s="3"/>
+    </row>
+    <row r="336">
+      <c r="A336" s="3"/>
+    </row>
+    <row r="337">
+      <c r="A337" s="3"/>
+    </row>
+    <row r="338">
+      <c r="A338" s="3"/>
+    </row>
+    <row r="339">
+      <c r="A339" s="3"/>
+    </row>
+    <row r="340">
+      <c r="A340" s="3"/>
+    </row>
+    <row r="341">
+      <c r="A341" s="3"/>
+    </row>
+    <row r="342">
+      <c r="A342" s="3"/>
+    </row>
+    <row r="343">
+      <c r="A343" s="3"/>
+    </row>
+    <row r="344">
+      <c r="A344" s="3"/>
+    </row>
+    <row r="345">
+      <c r="A345" s="3"/>
+    </row>
+    <row r="346">
+      <c r="A346" s="3"/>
+    </row>
+    <row r="347">
+      <c r="A347" s="3"/>
+    </row>
+    <row r="348">
+      <c r="A348" s="3"/>
+    </row>
+    <row r="349">
+      <c r="A349" s="3"/>
+    </row>
+    <row r="350">
+      <c r="A350" s="3"/>
+    </row>
+    <row r="351">
+      <c r="A351" s="3"/>
+    </row>
+    <row r="352">
+      <c r="A352" s="3"/>
+    </row>
+    <row r="353">
+      <c r="A353" s="3"/>
+    </row>
+    <row r="354">
+      <c r="A354" s="3"/>
+    </row>
+    <row r="355">
+      <c r="A355" s="3"/>
+    </row>
+    <row r="356">
+      <c r="A356" s="3"/>
+    </row>
+    <row r="357">
+      <c r="A357" s="3"/>
+    </row>
+    <row r="358">
+      <c r="A358" s="3"/>
+    </row>
+    <row r="359">
+      <c r="A359" s="3"/>
+    </row>
+    <row r="360">
+      <c r="A360" s="3"/>
+    </row>
+    <row r="361">
+      <c r="A361" s="3"/>
+    </row>
+    <row r="362">
+      <c r="A362" s="3"/>
+    </row>
+    <row r="363">
+      <c r="A363" s="3"/>
+    </row>
+    <row r="364">
+      <c r="A364" s="3"/>
+    </row>
+    <row r="365">
+      <c r="A365" s="3"/>
+    </row>
+    <row r="366">
+      <c r="A366" s="3"/>
+    </row>
+    <row r="367">
+      <c r="A367" s="3"/>
+    </row>
+    <row r="368">
+      <c r="A368" s="3"/>
+    </row>
+    <row r="369">
+      <c r="A369" s="3"/>
+    </row>
+    <row r="370">
+      <c r="A370" s="3"/>
+    </row>
+    <row r="371">
+      <c r="A371" s="3"/>
+    </row>
+    <row r="372">
+      <c r="A372" s="3"/>
+    </row>
+    <row r="373">
+      <c r="A373" s="3"/>
+    </row>
+    <row r="374">
+      <c r="A374" s="3"/>
+    </row>
+    <row r="375">
+      <c r="A375" s="3"/>
+    </row>
+    <row r="376">
+      <c r="A376" s="3"/>
+    </row>
+    <row r="377">
+      <c r="A377" s="3"/>
+    </row>
+    <row r="378">
+      <c r="A378" s="3"/>
+    </row>
+    <row r="379">
+      <c r="A379" s="3"/>
+    </row>
+    <row r="380">
+      <c r="A380" s="3"/>
+    </row>
+    <row r="381">
+      <c r="A381" s="3"/>
+    </row>
+    <row r="382">
+      <c r="A382" s="3"/>
+    </row>
+    <row r="383">
+      <c r="A383" s="3"/>
+    </row>
+    <row r="384">
+      <c r="A384" s="3"/>
+    </row>
+    <row r="385">
+      <c r="A385" s="3"/>
+    </row>
+    <row r="386">
+      <c r="A386" s="3"/>
+    </row>
+    <row r="387">
+      <c r="A387" s="3"/>
+    </row>
+    <row r="388">
+      <c r="A388" s="3"/>
+    </row>
+    <row r="389">
+      <c r="A389" s="3"/>
+    </row>
+    <row r="390">
+      <c r="A390" s="3"/>
+    </row>
+    <row r="391">
+      <c r="A391" s="3"/>
+    </row>
+    <row r="392">
+      <c r="A392" s="3"/>
+    </row>
+    <row r="393">
+      <c r="A393" s="3"/>
+    </row>
+    <row r="394">
+      <c r="A394" s="3"/>
+    </row>
+    <row r="395">
+      <c r="A395" s="3"/>
+    </row>
+    <row r="396">
+      <c r="A396" s="3"/>
+    </row>
+    <row r="397">
+      <c r="A397" s="3"/>
+    </row>
+    <row r="398">
+      <c r="A398" s="3"/>
+    </row>
+    <row r="399">
+      <c r="A399" s="3"/>
+    </row>
+    <row r="400">
+      <c r="A400" s="3"/>
+    </row>
+    <row r="401">
+      <c r="A401" s="3"/>
+    </row>
+    <row r="402">
+      <c r="A402" s="3"/>
+    </row>
+    <row r="403">
+      <c r="A403" s="3"/>
+    </row>
+    <row r="404">
+      <c r="A404" s="3"/>
+    </row>
+    <row r="405">
+      <c r="A405" s="3"/>
+    </row>
+    <row r="406">
+      <c r="A406" s="3"/>
+    </row>
+    <row r="407">
+      <c r="A407" s="3"/>
+    </row>
+    <row r="408">
+      <c r="A408" s="3"/>
+    </row>
+    <row r="409">
+      <c r="A409" s="3"/>
+    </row>
+    <row r="410">
+      <c r="A410" s="3"/>
+    </row>
+    <row r="411">
+      <c r="A411" s="3"/>
+    </row>
+    <row r="412">
+      <c r="A412" s="3"/>
+    </row>
+    <row r="413">
+      <c r="A413" s="3"/>
+    </row>
+    <row r="414">
+      <c r="A414" s="3"/>
+    </row>
+    <row r="415">
+      <c r="A415" s="3"/>
+    </row>
+    <row r="416">
+      <c r="A416" s="3"/>
+    </row>
+    <row r="417">
+      <c r="A417" s="3"/>
+    </row>
+    <row r="418">
+      <c r="A418" s="3"/>
+    </row>
+    <row r="419">
+      <c r="A419" s="3"/>
+    </row>
+    <row r="420">
+      <c r="A420" s="3"/>
+    </row>
+    <row r="421">
+      <c r="A421" s="3"/>
+    </row>
+    <row r="422">
+      <c r="A422" s="3"/>
+    </row>
+    <row r="423">
+      <c r="A423" s="3"/>
+    </row>
+    <row r="424">
+      <c r="A424" s="3"/>
+    </row>
+    <row r="425">
+      <c r="A425" s="3"/>
+    </row>
+    <row r="426">
+      <c r="A426" s="3"/>
+    </row>
+    <row r="427">
+      <c r="A427" s="3"/>
+    </row>
+    <row r="428">
+      <c r="A428" s="3"/>
+    </row>
+    <row r="429">
+      <c r="A429" s="3"/>
+    </row>
+    <row r="430">
+      <c r="A430" s="3"/>
+    </row>
+    <row r="431">
+      <c r="A431" s="3"/>
+    </row>
+    <row r="432">
+      <c r="A432" s="3"/>
+    </row>
+    <row r="433">
+      <c r="A433" s="3"/>
+    </row>
+    <row r="434">
+      <c r="A434" s="3"/>
+    </row>
+    <row r="435">
+      <c r="A435" s="3"/>
+    </row>
+    <row r="436">
+      <c r="A436" s="3"/>
+    </row>
+    <row r="437">
+      <c r="A437" s="3"/>
+    </row>
+    <row r="438">
+      <c r="A438" s="3"/>
+    </row>
+    <row r="439">
+      <c r="A439" s="3"/>
+    </row>
+    <row r="440">
+      <c r="A440" s="3"/>
+    </row>
+    <row r="441">
+      <c r="A441" s="3"/>
+    </row>
+    <row r="442">
+      <c r="A442" s="3"/>
+    </row>
+    <row r="443">
+      <c r="A443" s="3"/>
+    </row>
+    <row r="444">
+      <c r="A444" s="3"/>
+    </row>
+    <row r="445">
+      <c r="A445" s="3"/>
+    </row>
+    <row r="446">
+      <c r="A446" s="3"/>
+    </row>
+    <row r="447">
+      <c r="A447" s="3"/>
+    </row>
+    <row r="448">
+      <c r="A448" s="3"/>
+    </row>
+    <row r="449">
+      <c r="A449" s="3"/>
+    </row>
+    <row r="450">
+      <c r="A450" s="3"/>
+    </row>
+    <row r="451">
+      <c r="A451" s="3"/>
+    </row>
+    <row r="452">
+      <c r="A452" s="3"/>
+    </row>
+    <row r="453">
+      <c r="A453" s="3"/>
+    </row>
+    <row r="454">
+      <c r="A454" s="3"/>
+    </row>
+    <row r="455">
+      <c r="A455" s="3"/>
+    </row>
+    <row r="456">
+      <c r="A456" s="3"/>
+    </row>
+    <row r="457">
+      <c r="A457" s="3"/>
+    </row>
+    <row r="458">
+      <c r="A458" s="3"/>
+    </row>
+    <row r="459">
+      <c r="A459" s="3"/>
+    </row>
+    <row r="460">
+      <c r="A460" s="3"/>
+    </row>
+    <row r="461">
+      <c r="A461" s="3"/>
+    </row>
+    <row r="462">
+      <c r="A462" s="3"/>
+    </row>
+    <row r="463">
+      <c r="A463" s="3"/>
+    </row>
+    <row r="464">
+      <c r="A464" s="3"/>
+    </row>
+    <row r="465">
+      <c r="A465" s="3"/>
+    </row>
+    <row r="466">
+      <c r="A466" s="3"/>
+    </row>
+    <row r="467">
+      <c r="A467" s="3"/>
+    </row>
+    <row r="468">
+      <c r="A468" s="3"/>
+    </row>
+    <row r="469">
+      <c r="A469" s="3"/>
+    </row>
+    <row r="470">
+      <c r="A470" s="3"/>
+    </row>
+    <row r="471">
+      <c r="A471" s="3"/>
+    </row>
+    <row r="472">
+      <c r="A472" s="3"/>
+    </row>
+    <row r="473">
+      <c r="A473" s="3"/>
+    </row>
+    <row r="474">
+      <c r="A474" s="3"/>
+    </row>
+    <row r="475">
+      <c r="A475" s="3"/>
+    </row>
+    <row r="476">
+      <c r="A476" s="3"/>
+    </row>
+    <row r="477">
+      <c r="A477" s="3"/>
+    </row>
+    <row r="478">
+      <c r="A478" s="3"/>
+    </row>
+    <row r="479">
+      <c r="A479" s="3"/>
+    </row>
+    <row r="480">
+      <c r="A480" s="3"/>
+    </row>
+    <row r="481">
+      <c r="A481" s="3"/>
+    </row>
+    <row r="482">
+      <c r="A482" s="3"/>
+    </row>
+    <row r="483">
+      <c r="A483" s="3"/>
+    </row>
+    <row r="484">
+      <c r="A484" s="3"/>
+    </row>
+    <row r="485">
+      <c r="A485" s="3"/>
+    </row>
+    <row r="486">
+      <c r="A486" s="3"/>
+    </row>
+    <row r="487">
+      <c r="A487" s="3"/>
+    </row>
+    <row r="488">
+      <c r="A488" s="3"/>
+    </row>
+    <row r="489">
+      <c r="A489" s="3"/>
+    </row>
+    <row r="490">
+      <c r="A490" s="3"/>
+    </row>
+    <row r="491">
+      <c r="A491" s="3"/>
+    </row>
+    <row r="492">
+      <c r="A492" s="3"/>
+    </row>
+    <row r="493">
+      <c r="A493" s="3"/>
+    </row>
+    <row r="494">
+      <c r="A494" s="3"/>
+    </row>
+    <row r="495">
+      <c r="A495" s="3"/>
+    </row>
+    <row r="496">
+      <c r="A496" s="3"/>
+    </row>
+    <row r="497">
+      <c r="A497" s="3"/>
+    </row>
+    <row r="498">
+      <c r="A498" s="3"/>
+    </row>
+    <row r="499">
+      <c r="A499" s="3"/>
+    </row>
+    <row r="500">
+      <c r="A500" s="3"/>
+    </row>
+    <row r="501">
+      <c r="A501" s="3"/>
+    </row>
+    <row r="502">
+      <c r="A502" s="3"/>
+    </row>
+    <row r="503">
+      <c r="A503" s="3"/>
+    </row>
+    <row r="504">
+      <c r="A504" s="3"/>
+    </row>
+    <row r="505">
+      <c r="A505" s="3"/>
+    </row>
+    <row r="506">
+      <c r="A506" s="3"/>
+    </row>
+    <row r="507">
+      <c r="A507" s="3"/>
+    </row>
+    <row r="508">
+      <c r="A508" s="3"/>
+    </row>
+    <row r="509">
+      <c r="A509" s="3"/>
+    </row>
+    <row r="510">
+      <c r="A510" s="3"/>
+    </row>
+    <row r="511">
+      <c r="A511" s="3"/>
+    </row>
+    <row r="512">
+      <c r="A512" s="3"/>
+    </row>
+    <row r="513">
+      <c r="A513" s="3"/>
+    </row>
+    <row r="514">
+      <c r="A514" s="3"/>
+    </row>
+    <row r="515">
+      <c r="A515" s="3"/>
+    </row>
+    <row r="516">
+      <c r="A516" s="3"/>
+    </row>
+    <row r="517">
+      <c r="A517" s="3"/>
+    </row>
+    <row r="518">
+      <c r="A518" s="3"/>
+    </row>
+    <row r="519">
+      <c r="A519" s="3"/>
+    </row>
+    <row r="520">
+      <c r="A520" s="3"/>
+    </row>
+    <row r="521">
+      <c r="A521" s="3"/>
+    </row>
+    <row r="522">
+      <c r="A522" s="3"/>
+    </row>
+    <row r="523">
+      <c r="A523" s="3"/>
+    </row>
+    <row r="524">
+      <c r="A524" s="3"/>
+    </row>
+    <row r="525">
+      <c r="A525" s="3"/>
+    </row>
+    <row r="526">
+      <c r="A526" s="3"/>
+    </row>
+    <row r="527">
+      <c r="A527" s="3"/>
+    </row>
+    <row r="528">
+      <c r="A528" s="3"/>
+    </row>
+    <row r="529">
+      <c r="A529" s="3"/>
+    </row>
+    <row r="530">
+      <c r="A530" s="3"/>
+    </row>
+    <row r="531">
+      <c r="A531" s="3"/>
+    </row>
+    <row r="532">
+      <c r="A532" s="3"/>
+    </row>
+    <row r="533">
+      <c r="A533" s="3"/>
+    </row>
+    <row r="534">
+      <c r="A534" s="3"/>
+    </row>
+    <row r="535">
+      <c r="A535" s="3"/>
+    </row>
+    <row r="536">
+      <c r="A536" s="3"/>
+    </row>
+    <row r="537">
+      <c r="A537" s="3"/>
+    </row>
+    <row r="538">
+      <c r="A538" s="3"/>
+    </row>
+    <row r="539">
+      <c r="A539" s="3"/>
+    </row>
+    <row r="540">
+      <c r="A540" s="3"/>
+    </row>
+    <row r="541">
+      <c r="A541" s="3"/>
+    </row>
+    <row r="542">
+      <c r="A542" s="3"/>
+    </row>
+    <row r="543">
+      <c r="A543" s="3"/>
+    </row>
+    <row r="544">
+      <c r="A544" s="3"/>
+    </row>
+    <row r="545">
+      <c r="A545" s="3"/>
+    </row>
+    <row r="546">
+      <c r="A546" s="3"/>
+    </row>
+    <row r="547">
+      <c r="A547" s="3"/>
+    </row>
+    <row r="548">
+      <c r="A548" s="3"/>
+    </row>
+    <row r="549">
+      <c r="A549" s="3"/>
+    </row>
+    <row r="550">
+      <c r="A550" s="3"/>
+    </row>
+    <row r="551">
+      <c r="A551" s="3"/>
+    </row>
+    <row r="552">
+      <c r="A552" s="3"/>
+    </row>
+    <row r="553">
+      <c r="A553" s="3"/>
+    </row>
+    <row r="554">
+      <c r="A554" s="3"/>
+    </row>
+    <row r="555">
+      <c r="A555" s="3"/>
+    </row>
+    <row r="556">
+      <c r="A556" s="3"/>
+    </row>
+    <row r="557">
+      <c r="A557" s="3"/>
+    </row>
+    <row r="558">
+      <c r="A558" s="3"/>
+    </row>
+    <row r="559">
+      <c r="A559" s="3"/>
+    </row>
+    <row r="560">
+      <c r="A560" s="3"/>
+    </row>
+    <row r="561">
+      <c r="A561" s="3"/>
+    </row>
+    <row r="562">
+      <c r="A562" s="3"/>
+    </row>
+    <row r="563">
+      <c r="A563" s="3"/>
+    </row>
+    <row r="564">
+      <c r="A564" s="3"/>
+    </row>
+    <row r="565">
+      <c r="A565" s="3"/>
+    </row>
+    <row r="566">
+      <c r="A566" s="3"/>
+    </row>
+    <row r="567">
+      <c r="A567" s="3"/>
+    </row>
+    <row r="568">
+      <c r="A568" s="3"/>
+    </row>
+    <row r="569">
+      <c r="A569" s="3"/>
+    </row>
+    <row r="570">
+      <c r="A570" s="3"/>
+    </row>
+    <row r="571">
+      <c r="A571" s="3"/>
+    </row>
+    <row r="572">
+      <c r="A572" s="3"/>
+    </row>
+    <row r="573">
+      <c r="A573" s="3"/>
+    </row>
+    <row r="574">
+      <c r="A574" s="3"/>
+    </row>
+    <row r="575">
+      <c r="A575" s="3"/>
+    </row>
+    <row r="576">
+      <c r="A576" s="3"/>
+    </row>
+    <row r="577">
+      <c r="A577" s="3"/>
+    </row>
+    <row r="578">
+      <c r="A578" s="3"/>
+    </row>
+    <row r="579">
+      <c r="A579" s="3"/>
+    </row>
+    <row r="580">
+      <c r="A580" s="3"/>
+    </row>
+    <row r="581">
+      <c r="A581" s="3"/>
+    </row>
+    <row r="582">
+      <c r="A582" s="3"/>
+    </row>
+    <row r="583">
+      <c r="A583" s="3"/>
+    </row>
+    <row r="584">
+      <c r="A584" s="3"/>
+    </row>
+    <row r="585">
+      <c r="A585" s="3"/>
+    </row>
+    <row r="586">
+      <c r="A586" s="3"/>
+    </row>
+    <row r="587">
+      <c r="A587" s="3"/>
+    </row>
+    <row r="588">
+      <c r="A588" s="3"/>
+    </row>
+    <row r="589">
+      <c r="A589" s="3"/>
+    </row>
+    <row r="590">
+      <c r="A590" s="3"/>
+    </row>
+    <row r="591">
+      <c r="A591" s="3"/>
+    </row>
+    <row r="592">
+      <c r="A592" s="3"/>
+    </row>
+    <row r="593">
+      <c r="A593" s="3"/>
+    </row>
+    <row r="594">
+      <c r="A594" s="3"/>
+    </row>
+    <row r="595">
+      <c r="A595" s="3"/>
+    </row>
+    <row r="596">
+      <c r="A596" s="3"/>
+    </row>
+    <row r="597">
+      <c r="A597" s="3"/>
+    </row>
+    <row r="598">
+      <c r="A598" s="3"/>
+    </row>
+    <row r="599">
+      <c r="A599" s="3"/>
+    </row>
+    <row r="600">
+      <c r="A600" s="3"/>
+    </row>
+    <row r="601">
+      <c r="A601" s="3"/>
+    </row>
+    <row r="602">
+      <c r="A602" s="3"/>
+    </row>
+    <row r="603">
+      <c r="A603" s="3"/>
+    </row>
+    <row r="604">
+      <c r="A604" s="3"/>
+    </row>
+    <row r="605">
+      <c r="A605" s="3"/>
+    </row>
+    <row r="606">
+      <c r="A606" s="3"/>
+    </row>
+    <row r="607">
+      <c r="A607" s="3"/>
+    </row>
+    <row r="608">
+      <c r="A608" s="3"/>
+    </row>
+    <row r="609">
+      <c r="A609" s="3"/>
+    </row>
+    <row r="610">
+      <c r="A610" s="3"/>
+    </row>
+    <row r="611">
+      <c r="A611" s="3"/>
+    </row>
+    <row r="612">
+      <c r="A612" s="3"/>
+    </row>
+    <row r="613">
+      <c r="A613" s="3"/>
+    </row>
+    <row r="614">
+      <c r="A614" s="3"/>
+    </row>
+    <row r="615">
+      <c r="A615" s="3"/>
+    </row>
+    <row r="616">
+      <c r="A616" s="3"/>
+    </row>
+    <row r="617">
+      <c r="A617" s="3"/>
+    </row>
+    <row r="618">
+      <c r="A618" s="3"/>
+    </row>
+    <row r="619">
+      <c r="A619" s="3"/>
+    </row>
+    <row r="620">
+      <c r="A620" s="3"/>
+    </row>
+    <row r="621">
+      <c r="A621" s="3"/>
+    </row>
+    <row r="622">
+      <c r="A622" s="3"/>
+    </row>
+    <row r="623">
+      <c r="A623" s="3"/>
+    </row>
+    <row r="624">
+      <c r="A624" s="3"/>
+    </row>
+    <row r="625">
+      <c r="A625" s="3"/>
+    </row>
+    <row r="626">
+      <c r="A626" s="3"/>
+    </row>
+    <row r="627">
+      <c r="A627" s="3"/>
+    </row>
+    <row r="628">
+      <c r="A628" s="3"/>
+    </row>
+    <row r="629">
+      <c r="A629" s="3"/>
+    </row>
+    <row r="630">
+      <c r="A630" s="3"/>
+    </row>
+    <row r="631">
+      <c r="A631" s="3"/>
+    </row>
+    <row r="632">
+      <c r="A632" s="3"/>
+    </row>
+    <row r="633">
+      <c r="A633" s="3"/>
+    </row>
+    <row r="634">
+      <c r="A634" s="3"/>
+    </row>
+    <row r="635">
+      <c r="A635" s="3"/>
+    </row>
+    <row r="636">
+      <c r="A636" s="3"/>
+    </row>
+    <row r="637">
+      <c r="A637" s="3"/>
+    </row>
+    <row r="638">
+      <c r="A638" s="3"/>
+    </row>
+    <row r="639">
+      <c r="A639" s="3"/>
+    </row>
+    <row r="640">
+      <c r="A640" s="3"/>
+    </row>
+    <row r="641">
+      <c r="A641" s="3"/>
+    </row>
+    <row r="642">
+      <c r="A642" s="3"/>
+    </row>
+    <row r="643">
+      <c r="A643" s="3"/>
+    </row>
+    <row r="644">
+      <c r="A644" s="3"/>
+    </row>
+    <row r="645">
+      <c r="A645" s="3"/>
+    </row>
+    <row r="646">
+      <c r="A646" s="3"/>
+    </row>
+    <row r="647">
+      <c r="A647" s="3"/>
+    </row>
+    <row r="648">
+      <c r="A648" s="3"/>
+    </row>
+    <row r="649">
+      <c r="A649" s="3"/>
+    </row>
+    <row r="650">
+      <c r="A650" s="3"/>
+    </row>
+    <row r="651">
+      <c r="A651" s="3"/>
+    </row>
+    <row r="652">
+      <c r="A652" s="3"/>
+    </row>
+    <row r="653">
+      <c r="A653" s="3"/>
+    </row>
+    <row r="654">
+      <c r="A654" s="3"/>
+    </row>
+    <row r="655">
+      <c r="A655" s="3"/>
+    </row>
+    <row r="656">
+      <c r="A656" s="3"/>
+    </row>
+    <row r="657">
+      <c r="A657" s="3"/>
+    </row>
+    <row r="658">
+      <c r="A658" s="3"/>
+    </row>
+    <row r="659">
+      <c r="A659" s="3"/>
+    </row>
+    <row r="660">
+      <c r="A660" s="3"/>
+    </row>
+    <row r="661">
+      <c r="A661" s="3"/>
+    </row>
+    <row r="662">
+      <c r="A662" s="3"/>
+    </row>
+    <row r="663">
+      <c r="A663" s="3"/>
+    </row>
+    <row r="664">
+      <c r="A664" s="3"/>
+    </row>
+    <row r="665">
+      <c r="A665" s="3"/>
+    </row>
+    <row r="666">
+      <c r="A666" s="3"/>
+    </row>
+    <row r="667">
+      <c r="A667" s="3"/>
+    </row>
+    <row r="668">
+      <c r="A668" s="3"/>
+    </row>
+    <row r="669">
+      <c r="A669" s="3"/>
+    </row>
+    <row r="670">
+      <c r="A670" s="3"/>
+    </row>
+    <row r="671">
+      <c r="A671" s="3"/>
+    </row>
+    <row r="672">
+      <c r="A672" s="3"/>
+    </row>
+    <row r="673">
+      <c r="A673" s="3"/>
+    </row>
+    <row r="674">
+      <c r="A674" s="3"/>
+    </row>
+    <row r="675">
+      <c r="A675" s="3"/>
+    </row>
+    <row r="676">
+      <c r="A676" s="3"/>
+    </row>
+    <row r="677">
+      <c r="A677" s="3"/>
+    </row>
+    <row r="678">
+      <c r="A678" s="3"/>
+    </row>
+    <row r="679">
+      <c r="A679" s="3"/>
+    </row>
+    <row r="680">
+      <c r="A680" s="3"/>
+    </row>
+    <row r="681">
+      <c r="A681" s="3"/>
+    </row>
+    <row r="682">
+      <c r="A682" s="3"/>
+    </row>
+    <row r="683">
+      <c r="A683" s="3"/>
+    </row>
+    <row r="684">
+      <c r="A684" s="3"/>
+    </row>
+    <row r="685">
+      <c r="A685" s="3"/>
+    </row>
+    <row r="686">
+      <c r="A686" s="3"/>
+    </row>
+    <row r="687">
+      <c r="A687" s="3"/>
+    </row>
+    <row r="688">
+      <c r="A688" s="3"/>
+    </row>
+    <row r="689">
+      <c r="A689" s="3"/>
+    </row>
+    <row r="690">
+      <c r="A690" s="3"/>
+    </row>
+    <row r="691">
+      <c r="A691" s="3"/>
+    </row>
+    <row r="692">
+      <c r="A692" s="3"/>
+    </row>
+    <row r="693">
+      <c r="A693" s="3"/>
+    </row>
+    <row r="694">
+      <c r="A694" s="3"/>
+    </row>
+    <row r="695">
+      <c r="A695" s="3"/>
+    </row>
+    <row r="696">
+      <c r="A696" s="3"/>
+    </row>
+    <row r="697">
+      <c r="A697" s="3"/>
+    </row>
+    <row r="698">
+      <c r="A698" s="3"/>
+    </row>
+    <row r="699">
+      <c r="A699" s="3"/>
+    </row>
+    <row r="700">
+      <c r="A700" s="3"/>
+    </row>
+    <row r="701">
+      <c r="A701" s="3"/>
+    </row>
+    <row r="702">
+      <c r="A702" s="3"/>
+    </row>
+    <row r="703">
+      <c r="A703" s="3"/>
+    </row>
+    <row r="704">
+      <c r="A704" s="3"/>
+    </row>
+    <row r="705">
+      <c r="A705" s="3"/>
+    </row>
+    <row r="706">
+      <c r="A706" s="3"/>
+    </row>
+    <row r="707">
+      <c r="A707" s="3"/>
+    </row>
+    <row r="708">
+      <c r="A708" s="3"/>
+    </row>
+    <row r="709">
+      <c r="A709" s="3"/>
+    </row>
+    <row r="710">
+      <c r="A710" s="3"/>
+    </row>
+    <row r="711">
+      <c r="A711" s="3"/>
+    </row>
+    <row r="712">
+      <c r="A712" s="3"/>
+    </row>
+    <row r="713">
+      <c r="A713" s="3"/>
+    </row>
+    <row r="714">
+      <c r="A714" s="3"/>
+    </row>
+    <row r="715">
+      <c r="A715" s="3"/>
+    </row>
+    <row r="716">
+      <c r="A716" s="3"/>
+    </row>
+    <row r="717">
+      <c r="A717" s="3"/>
+    </row>
+    <row r="718">
+      <c r="A718" s="3"/>
+    </row>
+    <row r="719">
+      <c r="A719" s="3"/>
+    </row>
+    <row r="720">
+      <c r="A720" s="3"/>
+    </row>
+    <row r="721">
+      <c r="A721" s="3"/>
+    </row>
+    <row r="722">
+      <c r="A722" s="3"/>
+    </row>
+    <row r="723">
+      <c r="A723" s="3"/>
+    </row>
+    <row r="724">
+      <c r="A724" s="3"/>
+    </row>
+    <row r="725">
+      <c r="A725" s="3"/>
+    </row>
+    <row r="726">
+      <c r="A726" s="3"/>
+    </row>
+    <row r="727">
+      <c r="A727" s="3"/>
+    </row>
+    <row r="728">
+      <c r="A728" s="3"/>
+    </row>
+    <row r="729">
+      <c r="A729" s="3"/>
+    </row>
+    <row r="730">
+      <c r="A730" s="3"/>
+    </row>
+    <row r="731">
+      <c r="A731" s="3"/>
+    </row>
+    <row r="732">
+      <c r="A732" s="3"/>
+    </row>
+    <row r="733">
+      <c r="A733" s="3"/>
+    </row>
+    <row r="734">
+      <c r="A734" s="3"/>
+    </row>
+    <row r="735">
+      <c r="A735" s="3"/>
+    </row>
+    <row r="736">
+      <c r="A736" s="3"/>
+    </row>
+    <row r="737">
+      <c r="A737" s="3"/>
+    </row>
+    <row r="738">
+      <c r="A738" s="3"/>
+    </row>
+    <row r="739">
+      <c r="A739" s="3"/>
+    </row>
+    <row r="740">
+      <c r="A740" s="3"/>
+    </row>
+    <row r="741">
+      <c r="A741" s="3"/>
+    </row>
+    <row r="742">
+      <c r="A742" s="3"/>
+    </row>
+    <row r="743">
+      <c r="A743" s="3"/>
+    </row>
+    <row r="744">
+      <c r="A744" s="3"/>
+    </row>
+    <row r="745">
+      <c r="A745" s="3"/>
+    </row>
+    <row r="746">
+      <c r="A746" s="3"/>
+    </row>
+    <row r="747">
+      <c r="A747" s="3"/>
+    </row>
+    <row r="748">
+      <c r="A748" s="3"/>
+    </row>
+    <row r="749">
+      <c r="A749" s="3"/>
+    </row>
+    <row r="750">
+      <c r="A750" s="3"/>
+    </row>
+    <row r="751">
+      <c r="A751" s="3"/>
+    </row>
+    <row r="752">
+      <c r="A752" s="3"/>
+    </row>
+    <row r="753">
+      <c r="A753" s="3"/>
+    </row>
+    <row r="754">
+      <c r="A754" s="3"/>
+    </row>
+    <row r="755">
+      <c r="A755" s="3"/>
+    </row>
+    <row r="756">
+      <c r="A756" s="3"/>
+    </row>
+    <row r="757">
+      <c r="A757" s="3"/>
+    </row>
+    <row r="758">
+      <c r="A758" s="3"/>
+    </row>
+    <row r="759">
+      <c r="A759" s="3"/>
+    </row>
+    <row r="760">
+      <c r="A760" s="3"/>
+    </row>
+    <row r="761">
+      <c r="A761" s="3"/>
+    </row>
+    <row r="762">
+      <c r="A762" s="3"/>
+    </row>
+    <row r="763">
+      <c r="A763" s="3"/>
+    </row>
+    <row r="764">
+      <c r="A764" s="3"/>
+    </row>
+    <row r="765">
+      <c r="A765" s="3"/>
+    </row>
+    <row r="766">
+      <c r="A766" s="3"/>
+    </row>
+    <row r="767">
+      <c r="A767" s="3"/>
+    </row>
+    <row r="768">
+      <c r="A768" s="3"/>
+    </row>
+    <row r="769">
+      <c r="A769" s="3"/>
+    </row>
+    <row r="770">
+      <c r="A770" s="3"/>
+    </row>
+    <row r="771">
+      <c r="A771" s="3"/>
+    </row>
+    <row r="772">
+      <c r="A772" s="3"/>
+    </row>
+    <row r="773">
+      <c r="A773" s="3"/>
+    </row>
+    <row r="774">
+      <c r="A774" s="3"/>
+    </row>
+    <row r="775">
+      <c r="A775" s="3"/>
+    </row>
+    <row r="776">
+      <c r="A776" s="3"/>
+    </row>
+    <row r="777">
+      <c r="A777" s="3"/>
+    </row>
+    <row r="778">
+      <c r="A778" s="3"/>
+    </row>
+    <row r="779">
+      <c r="A779" s="3"/>
+    </row>
+    <row r="780">
+      <c r="A780" s="3"/>
+    </row>
+    <row r="781">
+      <c r="A781" s="3"/>
+    </row>
+    <row r="782">
+      <c r="A782" s="3"/>
+    </row>
+    <row r="783">
+      <c r="A783" s="3"/>
+    </row>
+    <row r="784">
+      <c r="A784" s="3"/>
+    </row>
+    <row r="785">
+      <c r="A785" s="3"/>
+    </row>
+    <row r="786">
+      <c r="A786" s="3"/>
+    </row>
+    <row r="787">
+      <c r="A787" s="3"/>
+    </row>
+    <row r="788">
+      <c r="A788" s="3"/>
+    </row>
+    <row r="789">
+      <c r="A789" s="3"/>
+    </row>
+    <row r="790">
+      <c r="A790" s="3"/>
+    </row>
+    <row r="791">
+      <c r="A791" s="3"/>
+    </row>
+    <row r="792">
+      <c r="A792" s="3"/>
+    </row>
+    <row r="793">
+      <c r="A793" s="3"/>
+    </row>
+    <row r="794">
+      <c r="A794" s="3"/>
+    </row>
+    <row r="795">
+      <c r="A795" s="3"/>
+    </row>
+    <row r="796">
+      <c r="A796" s="3"/>
+    </row>
+    <row r="797">
+      <c r="A797" s="3"/>
+    </row>
+    <row r="798">
+      <c r="A798" s="3"/>
+    </row>
+    <row r="799">
+      <c r="A799" s="3"/>
+    </row>
+    <row r="800">
+      <c r="A800" s="3"/>
+    </row>
+    <row r="801">
+      <c r="A801" s="3"/>
+    </row>
+    <row r="802">
+      <c r="A802" s="3"/>
+    </row>
+    <row r="803">
+      <c r="A803" s="3"/>
+    </row>
+    <row r="804">
+      <c r="A804" s="3"/>
+    </row>
+    <row r="805">
+      <c r="A805" s="3"/>
+    </row>
+    <row r="806">
+      <c r="A806" s="3"/>
+    </row>
+    <row r="807">
+      <c r="A807" s="3"/>
+    </row>
+    <row r="808">
+      <c r="A808" s="3"/>
+    </row>
+    <row r="809">
+      <c r="A809" s="3"/>
+    </row>
+    <row r="810">
+      <c r="A810" s="3"/>
+    </row>
+    <row r="811">
+      <c r="A811" s="3"/>
+    </row>
+    <row r="812">
+      <c r="A812" s="3"/>
+    </row>
+    <row r="813">
+      <c r="A813" s="3"/>
+    </row>
+    <row r="814">
+      <c r="A814" s="3"/>
+    </row>
+    <row r="815">
+      <c r="A815" s="3"/>
+    </row>
+    <row r="816">
+      <c r="A816" s="3"/>
+    </row>
+    <row r="817">
+      <c r="A817" s="3"/>
+    </row>
+    <row r="818">
+      <c r="A818" s="3"/>
+    </row>
+    <row r="819">
+      <c r="A819" s="3"/>
+    </row>
+    <row r="820">
+      <c r="A820" s="3"/>
+    </row>
+    <row r="821">
+      <c r="A821" s="3"/>
+    </row>
+    <row r="822">
+      <c r="A822" s="3"/>
+    </row>
+    <row r="823">
+      <c r="A823" s="3"/>
+    </row>
+    <row r="824">
+      <c r="A824" s="3"/>
+    </row>
+    <row r="825">
+      <c r="A825" s="3"/>
+    </row>
+    <row r="826">
+      <c r="A826" s="3"/>
+    </row>
+    <row r="827">
+      <c r="A827" s="3"/>
+    </row>
+    <row r="828">
+      <c r="A828" s="3"/>
+    </row>
+    <row r="829">
+      <c r="A829" s="3"/>
+    </row>
+    <row r="830">
+      <c r="A830" s="3"/>
+    </row>
+    <row r="831">
+      <c r="A831" s="3"/>
+    </row>
+    <row r="832">
+      <c r="A832" s="3"/>
+    </row>
+    <row r="833">
+      <c r="A833" s="3"/>
+    </row>
+    <row r="834">
+      <c r="A834" s="3"/>
+    </row>
+    <row r="835">
+      <c r="A835" s="3"/>
+    </row>
+    <row r="836">
+      <c r="A836" s="3"/>
+    </row>
+    <row r="837">
+      <c r="A837" s="3"/>
+    </row>
+    <row r="838">
+      <c r="A838" s="3"/>
+    </row>
+    <row r="839">
+      <c r="A839" s="3"/>
+    </row>
+    <row r="840">
+      <c r="A840" s="3"/>
+    </row>
+    <row r="841">
+      <c r="A841" s="3"/>
+    </row>
+    <row r="842">
+      <c r="A842" s="3"/>
+    </row>
+    <row r="843">
+      <c r="A843" s="3"/>
+    </row>
+    <row r="844">
+      <c r="A844" s="3"/>
+    </row>
+    <row r="845">
+      <c r="A845" s="3"/>
+    </row>
+    <row r="846">
+      <c r="A846" s="3"/>
+    </row>
+    <row r="847">
+      <c r="A847" s="3"/>
+    </row>
+    <row r="848">
+      <c r="A848" s="3"/>
+    </row>
+    <row r="849">
+      <c r="A849" s="3"/>
+    </row>
+    <row r="850">
+      <c r="A850" s="3"/>
+    </row>
+    <row r="851">
+      <c r="A851" s="3"/>
+    </row>
+    <row r="852">
+      <c r="A852" s="3"/>
+    </row>
+    <row r="853">
+      <c r="A853" s="3"/>
+    </row>
+    <row r="854">
+      <c r="A854" s="3"/>
+    </row>
+    <row r="855">
+      <c r="A855" s="3"/>
+    </row>
+    <row r="856">
+      <c r="A856" s="3"/>
+    </row>
+    <row r="857">
+      <c r="A857" s="3"/>
+    </row>
+    <row r="858">
+      <c r="A858" s="3"/>
+    </row>
+    <row r="859">
+      <c r="A859" s="3"/>
+    </row>
+    <row r="860">
+      <c r="A860" s="3"/>
+    </row>
+    <row r="861">
+      <c r="A861" s="3"/>
+    </row>
+    <row r="862">
+      <c r="A862" s="3"/>
+    </row>
+    <row r="863">
+      <c r="A863" s="3"/>
+    </row>
+    <row r="864">
+      <c r="A864" s="3"/>
+    </row>
+    <row r="865">
+      <c r="A865" s="3"/>
+    </row>
+    <row r="866">
+      <c r="A866" s="3"/>
+    </row>
+    <row r="867">
+      <c r="A867" s="3"/>
+    </row>
+    <row r="868">
+      <c r="A868" s="3"/>
+    </row>
+    <row r="869">
+      <c r="A869" s="3"/>
+    </row>
+    <row r="870">
+      <c r="A870" s="3"/>
+    </row>
+    <row r="871">
+      <c r="A871" s="3"/>
+    </row>
+    <row r="872">
+      <c r="A872" s="3"/>
+    </row>
+    <row r="873">
+      <c r="A873" s="3"/>
+    </row>
+    <row r="874">
+      <c r="A874" s="3"/>
+    </row>
+    <row r="875">
+      <c r="A875" s="3"/>
+    </row>
+    <row r="876">
+      <c r="A876" s="3"/>
+    </row>
+    <row r="877">
+      <c r="A877" s="3"/>
+    </row>
+    <row r="878">
+      <c r="A878" s="3"/>
+    </row>
+    <row r="879">
+      <c r="A879" s="3"/>
+    </row>
+    <row r="880">
+      <c r="A880" s="3"/>
+    </row>
+    <row r="881">
+      <c r="A881" s="3"/>
+    </row>
+    <row r="882">
+      <c r="A882" s="3"/>
+    </row>
+    <row r="883">
+      <c r="A883" s="3"/>
+    </row>
+    <row r="884">
+      <c r="A884" s="3"/>
+    </row>
+    <row r="885">
+      <c r="A885" s="3"/>
+    </row>
+    <row r="886">
+      <c r="A886" s="3"/>
+    </row>
+    <row r="887">
+      <c r="A887" s="3"/>
+    </row>
+    <row r="888">
+      <c r="A888" s="3"/>
+    </row>
+    <row r="889">
+      <c r="A889" s="3"/>
+    </row>
+    <row r="890">
+      <c r="A890" s="3"/>
+    </row>
+    <row r="891">
+      <c r="A891" s="3"/>
+    </row>
+    <row r="892">
+      <c r="A892" s="3"/>
+    </row>
+    <row r="893">
+      <c r="A893" s="3"/>
+    </row>
+    <row r="894">
+      <c r="A894" s="3"/>
+    </row>
+    <row r="895">
+      <c r="A895" s="3"/>
+    </row>
+    <row r="896">
+      <c r="A896" s="3"/>
+    </row>
+    <row r="897">
+      <c r="A897" s="3"/>
+    </row>
+    <row r="898">
+      <c r="A898" s="3"/>
+    </row>
+    <row r="899">
+      <c r="A899" s="3"/>
+    </row>
+    <row r="900">
+      <c r="A900" s="3"/>
+    </row>
+    <row r="901">
+      <c r="A901" s="3"/>
+    </row>
+    <row r="902">
+      <c r="A902" s="3"/>
+    </row>
+    <row r="903">
+      <c r="A903" s="3"/>
+    </row>
+    <row r="904">
+      <c r="A904" s="3"/>
+    </row>
+    <row r="905">
+      <c r="A905" s="3"/>
+    </row>
+    <row r="906">
+      <c r="A906" s="3"/>
+    </row>
+    <row r="907">
+      <c r="A907" s="3"/>
+    </row>
+    <row r="908">
+      <c r="A908" s="3"/>
+    </row>
+    <row r="909">
+      <c r="A909" s="3"/>
+    </row>
+    <row r="910">
+      <c r="A910" s="3"/>
+    </row>
+    <row r="911">
+      <c r="A911" s="3"/>
+    </row>
+    <row r="912">
+      <c r="A912" s="3"/>
+    </row>
+    <row r="913">
+      <c r="A913" s="3"/>
+    </row>
+    <row r="914">
+      <c r="A914" s="3"/>
+    </row>
+    <row r="915">
+      <c r="A915" s="3"/>
+    </row>
+    <row r="916">
+      <c r="A916" s="3"/>
+    </row>
+    <row r="917">
+      <c r="A917" s="3"/>
+    </row>
+    <row r="918">
+      <c r="A918" s="3"/>
+    </row>
+    <row r="919">
+      <c r="A919" s="3"/>
+    </row>
+    <row r="920">
+      <c r="A920" s="3"/>
+    </row>
+    <row r="921">
+      <c r="A921" s="3"/>
+    </row>
+    <row r="922">
+      <c r="A922" s="3"/>
+    </row>
+    <row r="923">
+      <c r="A923" s="3"/>
+    </row>
+    <row r="924">
+      <c r="A924" s="3"/>
+    </row>
+    <row r="925">
+      <c r="A925" s="3"/>
+    </row>
+    <row r="926">
+      <c r="A926" s="3"/>
+    </row>
+    <row r="927">
+      <c r="A927" s="3"/>
+    </row>
+    <row r="928">
+      <c r="A928" s="3"/>
+    </row>
+    <row r="929">
+      <c r="A929" s="3"/>
+    </row>
+    <row r="930">
+      <c r="A930" s="3"/>
+    </row>
+    <row r="931">
+      <c r="A931" s="3"/>
+    </row>
+    <row r="932">
+      <c r="A932" s="3"/>
+    </row>
+    <row r="933">
+      <c r="A933" s="3"/>
+    </row>
+    <row r="934">
+      <c r="A934" s="3"/>
+    </row>
+    <row r="935">
+      <c r="A935" s="3"/>
+    </row>
+    <row r="936">
+      <c r="A936" s="3"/>
+    </row>
+    <row r="937">
+      <c r="A937" s="3"/>
+    </row>
+    <row r="938">
+      <c r="A938" s="3"/>
+    </row>
+    <row r="939">
+      <c r="A939" s="3"/>
+    </row>
+    <row r="940">
+      <c r="A940" s="3"/>
+    </row>
+    <row r="941">
+      <c r="A941" s="3"/>
+    </row>
+    <row r="942">
+      <c r="A942" s="3"/>
+    </row>
+    <row r="943">
+      <c r="A943" s="3"/>
+    </row>
+    <row r="944">
+      <c r="A944" s="3"/>
+    </row>
+    <row r="945">
+      <c r="A945" s="3"/>
+    </row>
+    <row r="946">
+      <c r="A946" s="3"/>
+    </row>
+    <row r="947">
+      <c r="A947" s="3"/>
+    </row>
+    <row r="948">
+      <c r="A948" s="3"/>
+    </row>
+    <row r="949">
+      <c r="A949" s="3"/>
+    </row>
+    <row r="950">
+      <c r="A950" s="3"/>
+    </row>
+    <row r="951">
+      <c r="A951" s="3"/>
+    </row>
+    <row r="952">
+      <c r="A952" s="3"/>
+    </row>
+    <row r="953">
+      <c r="A953" s="3"/>
+    </row>
+    <row r="954">
+      <c r="A954" s="3"/>
+    </row>
+    <row r="955">
+      <c r="A955" s="3"/>
+    </row>
+    <row r="956">
+      <c r="A956" s="3"/>
+    </row>
+    <row r="957">
+      <c r="A957" s="3"/>
+    </row>
+    <row r="958">
+      <c r="A958" s="3"/>
+    </row>
+    <row r="959">
+      <c r="A959" s="3"/>
+    </row>
+    <row r="960">
+      <c r="A960" s="3"/>
+    </row>
+    <row r="961">
+      <c r="A961" s="3"/>
+    </row>
+    <row r="962">
+      <c r="A962" s="3"/>
+    </row>
+    <row r="963">
+      <c r="A963" s="3"/>
+    </row>
+    <row r="964">
+      <c r="A964" s="3"/>
+    </row>
+    <row r="965">
+      <c r="A965" s="3"/>
+    </row>
+    <row r="966">
+      <c r="A966" s="3"/>
+    </row>
+    <row r="967">
+      <c r="A967" s="3"/>
+    </row>
+    <row r="968">
+      <c r="A968" s="3"/>
+    </row>
+    <row r="969">
+      <c r="A969" s="3"/>
+    </row>
+    <row r="970">
+      <c r="A970" s="3"/>
+    </row>
+    <row r="971">
+      <c r="A971" s="3"/>
+    </row>
+    <row r="972">
+      <c r="A972" s="3"/>
+    </row>
+    <row r="973">
+      <c r="A973" s="3"/>
+    </row>
+    <row r="974">
+      <c r="A974" s="3"/>
+    </row>
+    <row r="975">
+      <c r="A975" s="3"/>
+    </row>
+    <row r="976">
+      <c r="A976" s="3"/>
+    </row>
+    <row r="977">
+      <c r="A977" s="3"/>
+    </row>
+    <row r="978">
+      <c r="A978" s="3"/>
+    </row>
+    <row r="979">
+      <c r="A979" s="3"/>
+    </row>
+    <row r="980">
+      <c r="A980" s="3"/>
+    </row>
+    <row r="981">
+      <c r="A981" s="3"/>
+    </row>
+    <row r="982">
+      <c r="A982" s="3"/>
+    </row>
+    <row r="983">
+      <c r="A983" s="3"/>
+    </row>
+    <row r="984">
+      <c r="A984" s="3"/>
+    </row>
+    <row r="985">
+      <c r="A985" s="3"/>
+    </row>
+    <row r="986">
+      <c r="A986" s="3"/>
+    </row>
+    <row r="987">
+      <c r="A987" s="3"/>
+    </row>
+    <row r="988">
+      <c r="A988" s="3"/>
+    </row>
+    <row r="989">
+      <c r="A989" s="3"/>
+    </row>
+    <row r="990">
+      <c r="A990" s="3"/>
+    </row>
+    <row r="991">
+      <c r="A991" s="3"/>
+    </row>
+    <row r="992">
+      <c r="A992" s="3"/>
+    </row>
+    <row r="993">
+      <c r="A993" s="3"/>
+    </row>
+    <row r="994">
+      <c r="A994" s="3"/>
+    </row>
+    <row r="995">
+      <c r="A995" s="3"/>
+    </row>
+    <row r="996">
+      <c r="A996" s="3"/>
+    </row>
+    <row r="997">
+      <c r="A997" s="3"/>
+    </row>
+    <row r="998">
+      <c r="A998" s="3"/>
+    </row>
+    <row r="999">
+      <c r="A999" s="3"/>
     </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="A2:A3">
+    <dataValidation type="list" allowBlank="1" sqref="A2:A999">
       <formula1>dane!$A$1:$A$10</formula1>
     </dataValidation>
   </dataValidations>
@@ -1354,13 +5676,13 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2311,7 +6633,7 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="5"/>
+      <c r="A88" s="3"/>
       <c r="B88" s="2" t="s">
         <v>181</v>
       </c>
@@ -2331,7 +6653,7 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="5"/>
+      <c r="A90" s="3"/>
       <c r="B90" s="2" t="s">
         <v>185</v>
       </c>
@@ -2362,7 +6684,7 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="5"/>
+      <c r="A93" s="3"/>
       <c r="B93" s="2" t="s">
         <v>190</v>
       </c>
@@ -2371,7 +6693,7 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="5"/>
+      <c r="A94" s="3"/>
       <c r="B94" s="2" t="s">
         <v>192</v>
       </c>
@@ -2380,7 +6702,7 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="5"/>
+      <c r="A95" s="3"/>
       <c r="B95" s="2" t="s">
         <v>194</v>
       </c>
@@ -2400,7 +6722,7 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="5"/>
+      <c r="A97" s="3"/>
       <c r="B97" s="2" t="s">
         <v>198</v>
       </c>
@@ -2420,7 +6742,7 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="5"/>
+      <c r="A99" s="3"/>
       <c r="B99" s="2" t="s">
         <v>202</v>
       </c>
@@ -2429,7 +6751,7 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="5"/>
+      <c r="A100" s="3"/>
       <c r="B100" s="2" t="s">
         <v>204</v>
       </c>
@@ -2438,7 +6760,7 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="5"/>
+      <c r="A101" s="3"/>
       <c r="B101" s="2" t="s">
         <v>108</v>
       </c>
@@ -2447,7 +6769,7 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="5"/>
+      <c r="A102" s="3"/>
       <c r="B102" s="2" t="s">
         <v>207</v>
       </c>
@@ -2456,7 +6778,7 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="5"/>
+      <c r="A103" s="3"/>
       <c r="B103" s="2" t="s">
         <v>209</v>
       </c>
@@ -2465,7 +6787,7 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="5"/>
+      <c r="A104" s="3"/>
       <c r="B104" s="2" t="s">
         <v>211</v>
       </c>
@@ -2474,7 +6796,7 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="5"/>
+      <c r="A105" s="3"/>
       <c r="B105" s="2" t="s">
         <v>213</v>
       </c>
@@ -2483,7 +6805,7 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="5"/>
+      <c r="A106" s="3"/>
       <c r="B106" s="2" t="s">
         <v>211</v>
       </c>
@@ -2492,7 +6814,7 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="5"/>
+      <c r="A107" s="3"/>
       <c r="B107" s="2" t="s">
         <v>216</v>
       </c>
@@ -2501,7 +6823,7 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="5"/>
+      <c r="A108" s="3"/>
       <c r="B108" s="2" t="s">
         <v>218</v>
       </c>
@@ -2510,7 +6832,7 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="5"/>
+      <c r="A109" s="3"/>
       <c r="B109" s="2" t="s">
         <v>220</v>
       </c>
@@ -2519,7 +6841,7 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="5"/>
+      <c r="A110" s="3"/>
       <c r="B110" s="2" t="s">
         <v>222</v>
       </c>
@@ -2528,7 +6850,7 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="5"/>
+      <c r="A111" s="3"/>
       <c r="B111" s="2" t="s">
         <v>224</v>
       </c>
@@ -2537,7 +6859,7 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="5"/>
+      <c r="A112" s="3"/>
       <c r="B112" s="2" t="s">
         <v>226</v>
       </c>
@@ -2546,7 +6868,7 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="5"/>
+      <c r="A113" s="3"/>
       <c r="B113" s="2" t="s">
         <v>228</v>
       </c>
@@ -2555,7 +6877,7 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="5"/>
+      <c r="A114" s="3"/>
       <c r="B114" s="2" t="s">
         <v>230</v>
       </c>
@@ -2564,7 +6886,7 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="5"/>
+      <c r="A115" s="3"/>
       <c r="B115" s="2" t="s">
         <v>232</v>
       </c>
@@ -2573,7 +6895,7 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="5"/>
+      <c r="A116" s="3"/>
       <c r="B116" s="2" t="s">
         <v>234</v>
       </c>
@@ -2593,7 +6915,7 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="5"/>
+      <c r="A118" s="3"/>
       <c r="B118" s="2" t="s">
         <v>238</v>
       </c>
@@ -2602,7 +6924,7 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="5"/>
+      <c r="A119" s="3"/>
       <c r="B119" s="2" t="s">
         <v>240</v>
       </c>
@@ -2611,8 +6933,8 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="5"/>
-      <c r="B120" s="6" t="s">
+      <c r="A120" s="3"/>
+      <c r="B120" s="4" t="s">
         <v>242</v>
       </c>
       <c r="C120" s="2" t="s">
@@ -2620,7 +6942,7 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="5"/>
+      <c r="A121" s="3"/>
       <c r="B121" s="2" t="s">
         <v>244</v>
       </c>
@@ -2629,7 +6951,7 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="5"/>
+      <c r="A122" s="3"/>
       <c r="B122" s="2" t="s">
         <v>246</v>
       </c>
@@ -2638,7 +6960,7 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="5"/>
+      <c r="A123" s="3"/>
       <c r="B123" s="2" t="s">
         <v>248</v>
       </c>
@@ -2647,7 +6969,7 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="5"/>
+      <c r="A124" s="3"/>
       <c r="B124" s="2" t="s">
         <v>250</v>
       </c>
@@ -2656,16 +6978,16 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="5"/>
+      <c r="A125" s="3"/>
       <c r="B125" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C125" s="7" t="s">
+      <c r="C125" s="5" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="5"/>
+      <c r="A126" s="3"/>
       <c r="B126" s="2" t="s">
         <v>254</v>
       </c>
@@ -2674,7 +6996,7 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="5"/>
+      <c r="A127" s="3"/>
       <c r="B127" s="2" t="s">
         <v>256</v>
       </c>
@@ -2683,7 +7005,7 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="5"/>
+      <c r="A128" s="3"/>
       <c r="B128" s="2" t="s">
         <v>258</v>
       </c>
@@ -2692,7 +7014,7 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="5"/>
+      <c r="A129" s="3"/>
       <c r="B129" s="2" t="s">
         <v>260</v>
       </c>
@@ -2701,7 +7023,7 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="5"/>
+      <c r="A130" s="3"/>
       <c r="B130" s="2" t="s">
         <v>262</v>
       </c>
@@ -2710,7 +7032,7 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="5"/>
+      <c r="A131" s="3"/>
       <c r="B131" s="2" t="s">
         <v>264</v>
       </c>
@@ -2719,7 +7041,7 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="5"/>
+      <c r="A132" s="3"/>
       <c r="B132" s="2" t="s">
         <v>266</v>
       </c>
@@ -2728,7 +7050,7 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="5"/>
+      <c r="A133" s="3"/>
       <c r="B133" s="2" t="s">
         <v>268</v>
       </c>
@@ -2737,7 +7059,7 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="5"/>
+      <c r="A134" s="3"/>
       <c r="B134" s="2" t="s">
         <v>270</v>
       </c>
@@ -2746,7 +7068,7 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="5"/>
+      <c r="A135" s="3"/>
       <c r="B135" s="2" t="s">
         <v>272</v>
       </c>
@@ -2755,7 +7077,7 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="5"/>
+      <c r="A136" s="3"/>
       <c r="B136" s="2" t="s">
         <v>274</v>
       </c>
@@ -2764,7 +7086,7 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="5"/>
+      <c r="A137" s="3"/>
       <c r="B137" s="2" t="s">
         <v>276</v>
       </c>
@@ -2773,7 +7095,7 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="5"/>
+      <c r="A138" s="3"/>
       <c r="B138" s="2" t="s">
         <v>278</v>
       </c>
@@ -2782,7 +7104,7 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="5"/>
+      <c r="A139" s="3"/>
       <c r="B139" s="2" t="s">
         <v>280</v>
       </c>
@@ -2791,7 +7113,7 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="5"/>
+      <c r="A140" s="3"/>
       <c r="B140" s="2" t="s">
         <v>282</v>
       </c>
@@ -2800,16 +7122,16 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="5"/>
+      <c r="A141" s="3"/>
       <c r="B141" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="C141" s="8" t="s">
+      <c r="C141" s="6" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="5"/>
+      <c r="A142" s="3"/>
       <c r="B142" s="2" t="s">
         <v>286</v>
       </c>
@@ -2818,7 +7140,7 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="5"/>
+      <c r="A143" s="3"/>
       <c r="B143" s="2" t="s">
         <v>288</v>
       </c>
@@ -2827,7 +7149,7 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="5"/>
+      <c r="A144" s="3"/>
       <c r="B144" s="2" t="s">
         <v>290</v>
       </c>
@@ -2836,7 +7158,7 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="5"/>
+      <c r="A145" s="3"/>
       <c r="B145" s="2" t="s">
         <v>291</v>
       </c>
@@ -2845,7 +7167,7 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="5"/>
+      <c r="A146" s="3"/>
       <c r="B146" s="2" t="s">
         <v>293</v>
       </c>
@@ -2854,7 +7176,7 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="5"/>
+      <c r="A147" s="3"/>
       <c r="B147" s="2" t="s">
         <v>295</v>
       </c>
@@ -2863,7 +7185,7 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="5"/>
+      <c r="A148" s="3"/>
       <c r="B148" s="2" t="s">
         <v>297</v>
       </c>
@@ -2872,7 +7194,7 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="5"/>
+      <c r="A149" s="3"/>
       <c r="B149" s="2" t="s">
         <v>299</v>
       </c>
@@ -2881,7 +7203,7 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="5"/>
+      <c r="A150" s="3"/>
       <c r="B150" s="2" t="s">
         <v>301</v>
       </c>
@@ -2890,7 +7212,7 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="5"/>
+      <c r="A151" s="3"/>
       <c r="B151" s="2" t="s">
         <v>303</v>
       </c>
@@ -2899,16 +7221,16 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="5"/>
+      <c r="A152" s="3"/>
       <c r="B152" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="C152" s="9" t="s">
+      <c r="C152" s="7" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="5"/>
+      <c r="A153" s="3"/>
       <c r="B153" s="2" t="s">
         <v>307</v>
       </c>
@@ -2917,7 +7239,7 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="5"/>
+      <c r="A154" s="3"/>
       <c r="B154" s="2" t="s">
         <v>309</v>
       </c>
@@ -2926,7 +7248,7 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="5"/>
+      <c r="A155" s="3"/>
       <c r="B155" s="2" t="s">
         <v>311</v>
       </c>
@@ -2935,7 +7257,7 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="5"/>
+      <c r="A156" s="3"/>
       <c r="B156" s="2" t="s">
         <v>313</v>
       </c>
@@ -2944,7 +7266,7 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="5"/>
+      <c r="A157" s="3"/>
       <c r="B157" s="2" t="s">
         <v>315</v>
       </c>
@@ -2953,7 +7275,7 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="5"/>
+      <c r="A158" s="3"/>
       <c r="B158" s="2" t="s">
         <v>317</v>
       </c>
@@ -2962,7 +7284,7 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="5"/>
+      <c r="A159" s="3"/>
       <c r="B159" s="2" t="s">
         <v>319</v>
       </c>
@@ -2971,7 +7293,7 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="5"/>
+      <c r="A160" s="3"/>
       <c r="B160" s="2" t="s">
         <v>321</v>
       </c>
@@ -2980,7 +7302,7 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="5"/>
+      <c r="A161" s="3"/>
       <c r="B161" s="2" t="s">
         <v>323</v>
       </c>
@@ -2989,2518 +7311,2626 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="5"/>
+      <c r="A162" s="3"/>
+      <c r="B162" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="163">
-      <c r="A163" s="5"/>
+      <c r="A163" s="3"/>
+      <c r="B163" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="164">
-      <c r="A164" s="5"/>
+      <c r="A164" s="3"/>
+      <c r="B164" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="165">
-      <c r="A165" s="5"/>
+      <c r="A165" s="3"/>
+      <c r="B165" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="166">
-      <c r="A166" s="5"/>
+      <c r="A166" s="3"/>
+      <c r="B166" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="167">
-      <c r="A167" s="5"/>
+      <c r="A167" s="3"/>
+      <c r="B167" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>336</v>
+      </c>
     </row>
     <row r="168">
-      <c r="A168" s="5"/>
+      <c r="A168" s="3"/>
+      <c r="B168" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="169">
-      <c r="A169" s="5"/>
+      <c r="A169" s="3"/>
+      <c r="B169" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>340</v>
+      </c>
     </row>
     <row r="170">
-      <c r="A170" s="5"/>
+      <c r="A170" s="3"/>
+      <c r="B170" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="171">
-      <c r="A171" s="5"/>
+      <c r="A171" s="3"/>
+      <c r="B171" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="172">
-      <c r="A172" s="5"/>
+      <c r="A172" s="3"/>
+      <c r="B172" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="173">
-      <c r="A173" s="5"/>
+      <c r="A173" s="3"/>
+      <c r="B173" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>348</v>
+      </c>
     </row>
     <row r="174">
-      <c r="A174" s="5"/>
+      <c r="A174" s="3"/>
+      <c r="B174" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="175">
-      <c r="A175" s="5"/>
+      <c r="A175" s="3"/>
+      <c r="B175" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="176">
-      <c r="A176" s="5"/>
+      <c r="A176" s="3"/>
+      <c r="B176" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="177">
-      <c r="A177" s="5"/>
+      <c r="A177" s="3"/>
+      <c r="B177" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="178">
-      <c r="A178" s="5"/>
+      <c r="A178" s="3"/>
+      <c r="B178" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="179">
-      <c r="A179" s="5"/>
+      <c r="A179" s="3"/>
+      <c r="B179" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="180">
-      <c r="A180" s="5"/>
+      <c r="A180" s="3"/>
     </row>
     <row r="181">
-      <c r="A181" s="5"/>
+      <c r="A181" s="3"/>
     </row>
     <row r="182">
-      <c r="A182" s="5"/>
+      <c r="A182" s="3"/>
     </row>
     <row r="183">
-      <c r="A183" s="5"/>
+      <c r="A183" s="3"/>
     </row>
     <row r="184">
-      <c r="A184" s="5"/>
+      <c r="A184" s="3"/>
     </row>
     <row r="185">
-      <c r="A185" s="5"/>
+      <c r="A185" s="3"/>
     </row>
     <row r="186">
-      <c r="A186" s="5"/>
+      <c r="A186" s="3"/>
     </row>
     <row r="187">
-      <c r="A187" s="5"/>
+      <c r="A187" s="3"/>
     </row>
     <row r="188">
-      <c r="A188" s="5"/>
+      <c r="A188" s="3"/>
     </row>
     <row r="189">
-      <c r="A189" s="5"/>
+      <c r="A189" s="3"/>
     </row>
     <row r="190">
-      <c r="A190" s="5"/>
+      <c r="A190" s="3"/>
     </row>
     <row r="191">
-      <c r="A191" s="5"/>
+      <c r="A191" s="3"/>
     </row>
     <row r="192">
-      <c r="A192" s="5"/>
+      <c r="A192" s="3"/>
     </row>
     <row r="193">
-      <c r="A193" s="5"/>
+      <c r="A193" s="3"/>
     </row>
     <row r="194">
-      <c r="A194" s="5"/>
+      <c r="A194" s="3"/>
     </row>
     <row r="195">
-      <c r="A195" s="5"/>
+      <c r="A195" s="3"/>
     </row>
     <row r="196">
-      <c r="A196" s="5"/>
+      <c r="A196" s="3"/>
     </row>
     <row r="197">
-      <c r="A197" s="5"/>
+      <c r="A197" s="3"/>
     </row>
     <row r="198">
-      <c r="A198" s="5"/>
+      <c r="A198" s="3"/>
     </row>
     <row r="199">
-      <c r="A199" s="5"/>
+      <c r="A199" s="3"/>
     </row>
     <row r="200">
-      <c r="A200" s="5"/>
+      <c r="A200" s="3"/>
     </row>
     <row r="201">
-      <c r="A201" s="5"/>
+      <c r="A201" s="3"/>
     </row>
     <row r="202">
-      <c r="A202" s="5"/>
+      <c r="A202" s="3"/>
     </row>
     <row r="203">
-      <c r="A203" s="5"/>
+      <c r="A203" s="3"/>
     </row>
     <row r="204">
-      <c r="A204" s="5"/>
+      <c r="A204" s="3"/>
     </row>
     <row r="205">
-      <c r="A205" s="5"/>
+      <c r="A205" s="3"/>
     </row>
     <row r="206">
-      <c r="A206" s="5"/>
+      <c r="A206" s="3"/>
     </row>
     <row r="207">
-      <c r="A207" s="5"/>
+      <c r="A207" s="3"/>
     </row>
     <row r="208">
-      <c r="A208" s="5"/>
+      <c r="A208" s="3"/>
     </row>
     <row r="209">
-      <c r="A209" s="5"/>
+      <c r="A209" s="3"/>
     </row>
     <row r="210">
-      <c r="A210" s="5"/>
+      <c r="A210" s="3"/>
     </row>
     <row r="211">
-      <c r="A211" s="5"/>
+      <c r="A211" s="3"/>
     </row>
     <row r="212">
-      <c r="A212" s="5"/>
+      <c r="A212" s="3"/>
     </row>
     <row r="213">
-      <c r="A213" s="5"/>
+      <c r="A213" s="3"/>
     </row>
     <row r="214">
-      <c r="A214" s="5"/>
+      <c r="A214" s="3"/>
     </row>
     <row r="215">
-      <c r="A215" s="5"/>
+      <c r="A215" s="3"/>
     </row>
     <row r="216">
-      <c r="A216" s="5"/>
+      <c r="A216" s="3"/>
     </row>
     <row r="217">
-      <c r="A217" s="5"/>
+      <c r="A217" s="3"/>
     </row>
     <row r="218">
-      <c r="A218" s="5"/>
+      <c r="A218" s="3"/>
     </row>
     <row r="219">
-      <c r="A219" s="5"/>
+      <c r="A219" s="3"/>
     </row>
     <row r="220">
-      <c r="A220" s="5"/>
+      <c r="A220" s="3"/>
     </row>
     <row r="221">
-      <c r="A221" s="5"/>
+      <c r="A221" s="3"/>
     </row>
     <row r="222">
-      <c r="A222" s="5"/>
+      <c r="A222" s="3"/>
     </row>
     <row r="223">
-      <c r="A223" s="5"/>
+      <c r="A223" s="3"/>
     </row>
     <row r="224">
-      <c r="A224" s="5"/>
+      <c r="A224" s="3"/>
     </row>
     <row r="225">
-      <c r="A225" s="5"/>
+      <c r="A225" s="3"/>
     </row>
     <row r="226">
-      <c r="A226" s="5"/>
+      <c r="A226" s="3"/>
     </row>
     <row r="227">
-      <c r="A227" s="5"/>
+      <c r="A227" s="3"/>
     </row>
     <row r="228">
-      <c r="A228" s="5"/>
+      <c r="A228" s="3"/>
     </row>
     <row r="229">
-      <c r="A229" s="5"/>
+      <c r="A229" s="3"/>
     </row>
     <row r="230">
-      <c r="A230" s="5"/>
+      <c r="A230" s="3"/>
     </row>
     <row r="231">
-      <c r="A231" s="5"/>
+      <c r="A231" s="3"/>
     </row>
     <row r="232">
-      <c r="A232" s="5"/>
+      <c r="A232" s="3"/>
     </row>
     <row r="233">
-      <c r="A233" s="5"/>
+      <c r="A233" s="3"/>
     </row>
     <row r="234">
-      <c r="A234" s="5"/>
+      <c r="A234" s="3"/>
     </row>
     <row r="235">
-      <c r="A235" s="5"/>
+      <c r="A235" s="3"/>
     </row>
     <row r="236">
-      <c r="A236" s="5"/>
+      <c r="A236" s="3"/>
     </row>
     <row r="237">
-      <c r="A237" s="5"/>
+      <c r="A237" s="3"/>
     </row>
     <row r="238">
-      <c r="A238" s="5"/>
+      <c r="A238" s="3"/>
     </row>
     <row r="239">
-      <c r="A239" s="5"/>
+      <c r="A239" s="3"/>
     </row>
     <row r="240">
-      <c r="A240" s="5"/>
+      <c r="A240" s="3"/>
     </row>
     <row r="241">
-      <c r="A241" s="5"/>
+      <c r="A241" s="3"/>
     </row>
     <row r="242">
-      <c r="A242" s="5"/>
+      <c r="A242" s="3"/>
     </row>
     <row r="243">
-      <c r="A243" s="5"/>
+      <c r="A243" s="3"/>
     </row>
     <row r="244">
-      <c r="A244" s="5"/>
+      <c r="A244" s="3"/>
     </row>
     <row r="245">
-      <c r="A245" s="5"/>
+      <c r="A245" s="3"/>
     </row>
     <row r="246">
-      <c r="A246" s="5"/>
+      <c r="A246" s="3"/>
     </row>
     <row r="247">
-      <c r="A247" s="5"/>
+      <c r="A247" s="3"/>
     </row>
     <row r="248">
-      <c r="A248" s="5"/>
+      <c r="A248" s="3"/>
     </row>
     <row r="249">
-      <c r="A249" s="5"/>
+      <c r="A249" s="3"/>
     </row>
     <row r="250">
-      <c r="A250" s="5"/>
+      <c r="A250" s="3"/>
     </row>
     <row r="251">
-      <c r="A251" s="5"/>
+      <c r="A251" s="3"/>
     </row>
     <row r="252">
-      <c r="A252" s="5"/>
+      <c r="A252" s="3"/>
     </row>
     <row r="253">
-      <c r="A253" s="5"/>
+      <c r="A253" s="3"/>
     </row>
     <row r="254">
-      <c r="A254" s="5"/>
+      <c r="A254" s="3"/>
     </row>
     <row r="255">
-      <c r="A255" s="5"/>
+      <c r="A255" s="3"/>
     </row>
     <row r="256">
-      <c r="A256" s="5"/>
+      <c r="A256" s="3"/>
     </row>
     <row r="257">
-      <c r="A257" s="5"/>
+      <c r="A257" s="3"/>
     </row>
     <row r="258">
-      <c r="A258" s="5"/>
+      <c r="A258" s="3"/>
     </row>
     <row r="259">
-      <c r="A259" s="5"/>
+      <c r="A259" s="3"/>
     </row>
     <row r="260">
-      <c r="A260" s="5"/>
+      <c r="A260" s="3"/>
     </row>
     <row r="261">
-      <c r="A261" s="5"/>
+      <c r="A261" s="3"/>
     </row>
     <row r="262">
-      <c r="A262" s="5"/>
+      <c r="A262" s="3"/>
     </row>
     <row r="263">
-      <c r="A263" s="5"/>
+      <c r="A263" s="3"/>
     </row>
     <row r="264">
-      <c r="A264" s="5"/>
+      <c r="A264" s="3"/>
     </row>
     <row r="265">
-      <c r="A265" s="5"/>
+      <c r="A265" s="3"/>
     </row>
     <row r="266">
-      <c r="A266" s="5"/>
+      <c r="A266" s="3"/>
     </row>
     <row r="267">
-      <c r="A267" s="5"/>
+      <c r="A267" s="3"/>
     </row>
     <row r="268">
-      <c r="A268" s="5"/>
+      <c r="A268" s="3"/>
     </row>
     <row r="269">
-      <c r="A269" s="5"/>
+      <c r="A269" s="3"/>
     </row>
     <row r="270">
-      <c r="A270" s="5"/>
+      <c r="A270" s="3"/>
     </row>
     <row r="271">
-      <c r="A271" s="5"/>
+      <c r="A271" s="3"/>
     </row>
     <row r="272">
-      <c r="A272" s="5"/>
+      <c r="A272" s="3"/>
     </row>
     <row r="273">
-      <c r="A273" s="5"/>
+      <c r="A273" s="3"/>
     </row>
     <row r="274">
-      <c r="A274" s="5"/>
+      <c r="A274" s="3"/>
     </row>
     <row r="275">
-      <c r="A275" s="5"/>
+      <c r="A275" s="3"/>
     </row>
     <row r="276">
-      <c r="A276" s="5"/>
+      <c r="A276" s="3"/>
     </row>
     <row r="277">
-      <c r="A277" s="5"/>
+      <c r="A277" s="3"/>
     </row>
     <row r="278">
-      <c r="A278" s="5"/>
+      <c r="A278" s="3"/>
     </row>
     <row r="279">
-      <c r="A279" s="5"/>
+      <c r="A279" s="3"/>
     </row>
     <row r="280">
-      <c r="A280" s="5"/>
+      <c r="A280" s="3"/>
     </row>
     <row r="281">
-      <c r="A281" s="5"/>
+      <c r="A281" s="3"/>
     </row>
     <row r="282">
-      <c r="A282" s="5"/>
+      <c r="A282" s="3"/>
     </row>
     <row r="283">
-      <c r="A283" s="5"/>
+      <c r="A283" s="3"/>
     </row>
     <row r="284">
-      <c r="A284" s="5"/>
+      <c r="A284" s="3"/>
     </row>
     <row r="285">
-      <c r="A285" s="5"/>
+      <c r="A285" s="3"/>
     </row>
     <row r="286">
-      <c r="A286" s="5"/>
+      <c r="A286" s="3"/>
     </row>
     <row r="287">
-      <c r="A287" s="5"/>
+      <c r="A287" s="3"/>
     </row>
     <row r="288">
-      <c r="A288" s="5"/>
+      <c r="A288" s="3"/>
     </row>
     <row r="289">
-      <c r="A289" s="5"/>
+      <c r="A289" s="3"/>
     </row>
     <row r="290">
-      <c r="A290" s="5"/>
+      <c r="A290" s="3"/>
     </row>
     <row r="291">
-      <c r="A291" s="5"/>
+      <c r="A291" s="3"/>
     </row>
     <row r="292">
-      <c r="A292" s="5"/>
+      <c r="A292" s="3"/>
     </row>
     <row r="293">
-      <c r="A293" s="5"/>
+      <c r="A293" s="3"/>
     </row>
     <row r="294">
-      <c r="A294" s="5"/>
+      <c r="A294" s="3"/>
     </row>
     <row r="295">
-      <c r="A295" s="5"/>
+      <c r="A295" s="3"/>
     </row>
     <row r="296">
-      <c r="A296" s="5"/>
+      <c r="A296" s="3"/>
     </row>
     <row r="297">
-      <c r="A297" s="5"/>
+      <c r="A297" s="3"/>
     </row>
     <row r="298">
-      <c r="A298" s="5"/>
+      <c r="A298" s="3"/>
     </row>
     <row r="299">
-      <c r="A299" s="5"/>
+      <c r="A299" s="3"/>
     </row>
     <row r="300">
-      <c r="A300" s="5"/>
+      <c r="A300" s="3"/>
     </row>
     <row r="301">
-      <c r="A301" s="5"/>
+      <c r="A301" s="3"/>
     </row>
     <row r="302">
-      <c r="A302" s="5"/>
+      <c r="A302" s="3"/>
     </row>
     <row r="303">
-      <c r="A303" s="5"/>
+      <c r="A303" s="3"/>
     </row>
     <row r="304">
-      <c r="A304" s="5"/>
+      <c r="A304" s="3"/>
     </row>
     <row r="305">
-      <c r="A305" s="5"/>
+      <c r="A305" s="3"/>
     </row>
     <row r="306">
-      <c r="A306" s="5"/>
+      <c r="A306" s="3"/>
     </row>
     <row r="307">
-      <c r="A307" s="5"/>
+      <c r="A307" s="3"/>
     </row>
     <row r="308">
-      <c r="A308" s="5"/>
+      <c r="A308" s="3"/>
     </row>
     <row r="309">
-      <c r="A309" s="5"/>
+      <c r="A309" s="3"/>
     </row>
     <row r="310">
-      <c r="A310" s="5"/>
+      <c r="A310" s="3"/>
     </row>
     <row r="311">
-      <c r="A311" s="5"/>
+      <c r="A311" s="3"/>
     </row>
     <row r="312">
-      <c r="A312" s="5"/>
+      <c r="A312" s="3"/>
     </row>
     <row r="313">
-      <c r="A313" s="5"/>
+      <c r="A313" s="3"/>
     </row>
     <row r="314">
-      <c r="A314" s="5"/>
+      <c r="A314" s="3"/>
     </row>
     <row r="315">
-      <c r="A315" s="5"/>
+      <c r="A315" s="3"/>
     </row>
     <row r="316">
-      <c r="A316" s="5"/>
+      <c r="A316" s="3"/>
     </row>
     <row r="317">
-      <c r="A317" s="5"/>
+      <c r="A317" s="3"/>
     </row>
     <row r="318">
-      <c r="A318" s="5"/>
+      <c r="A318" s="3"/>
     </row>
     <row r="319">
-      <c r="A319" s="5"/>
+      <c r="A319" s="3"/>
     </row>
     <row r="320">
-      <c r="A320" s="5"/>
+      <c r="A320" s="3"/>
     </row>
     <row r="321">
-      <c r="A321" s="5"/>
+      <c r="A321" s="3"/>
     </row>
     <row r="322">
-      <c r="A322" s="5"/>
+      <c r="A322" s="3"/>
     </row>
     <row r="323">
-      <c r="A323" s="5"/>
+      <c r="A323" s="3"/>
     </row>
     <row r="324">
-      <c r="A324" s="5"/>
+      <c r="A324" s="3"/>
     </row>
     <row r="325">
-      <c r="A325" s="5"/>
+      <c r="A325" s="3"/>
     </row>
     <row r="326">
-      <c r="A326" s="5"/>
+      <c r="A326" s="3"/>
     </row>
     <row r="327">
-      <c r="A327" s="5"/>
+      <c r="A327" s="3"/>
     </row>
     <row r="328">
-      <c r="A328" s="5"/>
+      <c r="A328" s="3"/>
     </row>
     <row r="329">
-      <c r="A329" s="5"/>
+      <c r="A329" s="3"/>
     </row>
     <row r="330">
-      <c r="A330" s="5"/>
+      <c r="A330" s="3"/>
     </row>
     <row r="331">
-      <c r="A331" s="5"/>
+      <c r="A331" s="3"/>
     </row>
     <row r="332">
-      <c r="A332" s="5"/>
+      <c r="A332" s="3"/>
     </row>
     <row r="333">
-      <c r="A333" s="5"/>
+      <c r="A333" s="3"/>
     </row>
     <row r="334">
-      <c r="A334" s="5"/>
+      <c r="A334" s="3"/>
     </row>
     <row r="335">
-      <c r="A335" s="5"/>
+      <c r="A335" s="3"/>
     </row>
     <row r="336">
-      <c r="A336" s="5"/>
+      <c r="A336" s="3"/>
     </row>
     <row r="337">
-      <c r="A337" s="5"/>
+      <c r="A337" s="3"/>
     </row>
     <row r="338">
-      <c r="A338" s="5"/>
+      <c r="A338" s="3"/>
     </row>
     <row r="339">
-      <c r="A339" s="5"/>
+      <c r="A339" s="3"/>
     </row>
     <row r="340">
-      <c r="A340" s="5"/>
+      <c r="A340" s="3"/>
     </row>
     <row r="341">
-      <c r="A341" s="5"/>
+      <c r="A341" s="3"/>
     </row>
     <row r="342">
-      <c r="A342" s="5"/>
+      <c r="A342" s="3"/>
     </row>
     <row r="343">
-      <c r="A343" s="5"/>
+      <c r="A343" s="3"/>
     </row>
     <row r="344">
-      <c r="A344" s="5"/>
+      <c r="A344" s="3"/>
     </row>
     <row r="345">
-      <c r="A345" s="5"/>
+      <c r="A345" s="3"/>
     </row>
     <row r="346">
-      <c r="A346" s="5"/>
+      <c r="A346" s="3"/>
     </row>
     <row r="347">
-      <c r="A347" s="5"/>
+      <c r="A347" s="3"/>
     </row>
     <row r="348">
-      <c r="A348" s="5"/>
+      <c r="A348" s="3"/>
     </row>
     <row r="349">
-      <c r="A349" s="5"/>
+      <c r="A349" s="3"/>
     </row>
     <row r="350">
-      <c r="A350" s="5"/>
+      <c r="A350" s="3"/>
     </row>
     <row r="351">
-      <c r="A351" s="5"/>
+      <c r="A351" s="3"/>
     </row>
     <row r="352">
-      <c r="A352" s="5"/>
+      <c r="A352" s="3"/>
     </row>
     <row r="353">
-      <c r="A353" s="5"/>
+      <c r="A353" s="3"/>
     </row>
     <row r="354">
-      <c r="A354" s="5"/>
+      <c r="A354" s="3"/>
     </row>
     <row r="355">
-      <c r="A355" s="5"/>
+      <c r="A355" s="3"/>
     </row>
     <row r="356">
-      <c r="A356" s="5"/>
+      <c r="A356" s="3"/>
     </row>
     <row r="357">
-      <c r="A357" s="5"/>
+      <c r="A357" s="3"/>
     </row>
     <row r="358">
-      <c r="A358" s="5"/>
+      <c r="A358" s="3"/>
     </row>
     <row r="359">
-      <c r="A359" s="5"/>
+      <c r="A359" s="3"/>
     </row>
     <row r="360">
-      <c r="A360" s="5"/>
+      <c r="A360" s="3"/>
     </row>
     <row r="361">
-      <c r="A361" s="5"/>
+      <c r="A361" s="3"/>
     </row>
     <row r="362">
-      <c r="A362" s="5"/>
+      <c r="A362" s="3"/>
     </row>
     <row r="363">
-      <c r="A363" s="5"/>
+      <c r="A363" s="3"/>
     </row>
     <row r="364">
-      <c r="A364" s="5"/>
+      <c r="A364" s="3"/>
     </row>
     <row r="365">
-      <c r="A365" s="5"/>
+      <c r="A365" s="3"/>
     </row>
     <row r="366">
-      <c r="A366" s="5"/>
+      <c r="A366" s="3"/>
     </row>
     <row r="367">
-      <c r="A367" s="5"/>
+      <c r="A367" s="3"/>
     </row>
     <row r="368">
-      <c r="A368" s="5"/>
+      <c r="A368" s="3"/>
     </row>
     <row r="369">
-      <c r="A369" s="5"/>
+      <c r="A369" s="3"/>
     </row>
     <row r="370">
-      <c r="A370" s="5"/>
+      <c r="A370" s="3"/>
     </row>
     <row r="371">
-      <c r="A371" s="5"/>
+      <c r="A371" s="3"/>
     </row>
     <row r="372">
-      <c r="A372" s="5"/>
+      <c r="A372" s="3"/>
     </row>
     <row r="373">
-      <c r="A373" s="5"/>
+      <c r="A373" s="3"/>
     </row>
     <row r="374">
-      <c r="A374" s="5"/>
+      <c r="A374" s="3"/>
     </row>
     <row r="375">
-      <c r="A375" s="5"/>
+      <c r="A375" s="3"/>
     </row>
     <row r="376">
-      <c r="A376" s="5"/>
+      <c r="A376" s="3"/>
     </row>
     <row r="377">
-      <c r="A377" s="5"/>
+      <c r="A377" s="3"/>
     </row>
     <row r="378">
-      <c r="A378" s="5"/>
+      <c r="A378" s="3"/>
     </row>
     <row r="379">
-      <c r="A379" s="5"/>
+      <c r="A379" s="3"/>
     </row>
     <row r="380">
-      <c r="A380" s="5"/>
+      <c r="A380" s="3"/>
     </row>
     <row r="381">
-      <c r="A381" s="5"/>
+      <c r="A381" s="3"/>
     </row>
     <row r="382">
-      <c r="A382" s="5"/>
+      <c r="A382" s="3"/>
     </row>
     <row r="383">
-      <c r="A383" s="5"/>
+      <c r="A383" s="3"/>
     </row>
     <row r="384">
-      <c r="A384" s="5"/>
+      <c r="A384" s="3"/>
     </row>
     <row r="385">
-      <c r="A385" s="5"/>
+      <c r="A385" s="3"/>
     </row>
     <row r="386">
-      <c r="A386" s="5"/>
+      <c r="A386" s="3"/>
     </row>
     <row r="387">
-      <c r="A387" s="5"/>
+      <c r="A387" s="3"/>
     </row>
     <row r="388">
-      <c r="A388" s="5"/>
+      <c r="A388" s="3"/>
     </row>
     <row r="389">
-      <c r="A389" s="5"/>
+      <c r="A389" s="3"/>
     </row>
     <row r="390">
-      <c r="A390" s="5"/>
+      <c r="A390" s="3"/>
     </row>
     <row r="391">
-      <c r="A391" s="5"/>
+      <c r="A391" s="3"/>
     </row>
     <row r="392">
-      <c r="A392" s="5"/>
+      <c r="A392" s="3"/>
     </row>
     <row r="393">
-      <c r="A393" s="5"/>
+      <c r="A393" s="3"/>
     </row>
     <row r="394">
-      <c r="A394" s="5"/>
+      <c r="A394" s="3"/>
     </row>
     <row r="395">
-      <c r="A395" s="5"/>
+      <c r="A395" s="3"/>
     </row>
     <row r="396">
-      <c r="A396" s="5"/>
+      <c r="A396" s="3"/>
     </row>
     <row r="397">
-      <c r="A397" s="5"/>
+      <c r="A397" s="3"/>
     </row>
     <row r="398">
-      <c r="A398" s="5"/>
+      <c r="A398" s="3"/>
     </row>
     <row r="399">
-      <c r="A399" s="5"/>
+      <c r="A399" s="3"/>
     </row>
     <row r="400">
-      <c r="A400" s="5"/>
+      <c r="A400" s="3"/>
     </row>
     <row r="401">
-      <c r="A401" s="5"/>
+      <c r="A401" s="3"/>
     </row>
     <row r="402">
-      <c r="A402" s="5"/>
+      <c r="A402" s="3"/>
     </row>
     <row r="403">
-      <c r="A403" s="5"/>
+      <c r="A403" s="3"/>
     </row>
     <row r="404">
-      <c r="A404" s="5"/>
+      <c r="A404" s="3"/>
     </row>
     <row r="405">
-      <c r="A405" s="5"/>
+      <c r="A405" s="3"/>
     </row>
     <row r="406">
-      <c r="A406" s="5"/>
+      <c r="A406" s="3"/>
     </row>
     <row r="407">
-      <c r="A407" s="5"/>
+      <c r="A407" s="3"/>
     </row>
     <row r="408">
-      <c r="A408" s="5"/>
+      <c r="A408" s="3"/>
     </row>
     <row r="409">
-      <c r="A409" s="5"/>
+      <c r="A409" s="3"/>
     </row>
     <row r="410">
-      <c r="A410" s="5"/>
+      <c r="A410" s="3"/>
     </row>
     <row r="411">
-      <c r="A411" s="5"/>
+      <c r="A411" s="3"/>
     </row>
     <row r="412">
-      <c r="A412" s="5"/>
+      <c r="A412" s="3"/>
     </row>
     <row r="413">
-      <c r="A413" s="5"/>
+      <c r="A413" s="3"/>
     </row>
     <row r="414">
-      <c r="A414" s="5"/>
+      <c r="A414" s="3"/>
     </row>
     <row r="415">
-      <c r="A415" s="5"/>
+      <c r="A415" s="3"/>
     </row>
     <row r="416">
-      <c r="A416" s="5"/>
+      <c r="A416" s="3"/>
     </row>
     <row r="417">
-      <c r="A417" s="5"/>
+      <c r="A417" s="3"/>
     </row>
     <row r="418">
-      <c r="A418" s="5"/>
+      <c r="A418" s="3"/>
     </row>
     <row r="419">
-      <c r="A419" s="5"/>
+      <c r="A419" s="3"/>
     </row>
     <row r="420">
-      <c r="A420" s="5"/>
+      <c r="A420" s="3"/>
     </row>
     <row r="421">
-      <c r="A421" s="5"/>
+      <c r="A421" s="3"/>
     </row>
     <row r="422">
-      <c r="A422" s="5"/>
+      <c r="A422" s="3"/>
     </row>
     <row r="423">
-      <c r="A423" s="5"/>
+      <c r="A423" s="3"/>
     </row>
     <row r="424">
-      <c r="A424" s="5"/>
+      <c r="A424" s="3"/>
     </row>
     <row r="425">
-      <c r="A425" s="5"/>
+      <c r="A425" s="3"/>
     </row>
     <row r="426">
-      <c r="A426" s="5"/>
+      <c r="A426" s="3"/>
     </row>
     <row r="427">
-      <c r="A427" s="5"/>
+      <c r="A427" s="3"/>
     </row>
     <row r="428">
-      <c r="A428" s="5"/>
+      <c r="A428" s="3"/>
     </row>
     <row r="429">
-      <c r="A429" s="5"/>
+      <c r="A429" s="3"/>
     </row>
     <row r="430">
-      <c r="A430" s="5"/>
+      <c r="A430" s="3"/>
     </row>
     <row r="431">
-      <c r="A431" s="5"/>
+      <c r="A431" s="3"/>
     </row>
     <row r="432">
-      <c r="A432" s="5"/>
+      <c r="A432" s="3"/>
     </row>
     <row r="433">
-      <c r="A433" s="5"/>
+      <c r="A433" s="3"/>
     </row>
     <row r="434">
-      <c r="A434" s="5"/>
+      <c r="A434" s="3"/>
     </row>
     <row r="435">
-      <c r="A435" s="5"/>
+      <c r="A435" s="3"/>
     </row>
     <row r="436">
-      <c r="A436" s="5"/>
+      <c r="A436" s="3"/>
     </row>
     <row r="437">
-      <c r="A437" s="5"/>
+      <c r="A437" s="3"/>
     </row>
     <row r="438">
-      <c r="A438" s="5"/>
+      <c r="A438" s="3"/>
     </row>
     <row r="439">
-      <c r="A439" s="5"/>
+      <c r="A439" s="3"/>
     </row>
     <row r="440">
-      <c r="A440" s="5"/>
+      <c r="A440" s="3"/>
     </row>
     <row r="441">
-      <c r="A441" s="5"/>
+      <c r="A441" s="3"/>
     </row>
     <row r="442">
-      <c r="A442" s="5"/>
+      <c r="A442" s="3"/>
     </row>
     <row r="443">
-      <c r="A443" s="5"/>
+      <c r="A443" s="3"/>
     </row>
     <row r="444">
-      <c r="A444" s="5"/>
+      <c r="A444" s="3"/>
     </row>
     <row r="445">
-      <c r="A445" s="5"/>
+      <c r="A445" s="3"/>
     </row>
     <row r="446">
-      <c r="A446" s="5"/>
+      <c r="A446" s="3"/>
     </row>
     <row r="447">
-      <c r="A447" s="5"/>
+      <c r="A447" s="3"/>
     </row>
     <row r="448">
-      <c r="A448" s="5"/>
+      <c r="A448" s="3"/>
     </row>
     <row r="449">
-      <c r="A449" s="5"/>
+      <c r="A449" s="3"/>
     </row>
     <row r="450">
-      <c r="A450" s="5"/>
+      <c r="A450" s="3"/>
     </row>
     <row r="451">
-      <c r="A451" s="5"/>
+      <c r="A451" s="3"/>
     </row>
     <row r="452">
-      <c r="A452" s="5"/>
+      <c r="A452" s="3"/>
     </row>
     <row r="453">
-      <c r="A453" s="5"/>
+      <c r="A453" s="3"/>
     </row>
     <row r="454">
-      <c r="A454" s="5"/>
+      <c r="A454" s="3"/>
     </row>
     <row r="455">
-      <c r="A455" s="5"/>
+      <c r="A455" s="3"/>
     </row>
     <row r="456">
-      <c r="A456" s="5"/>
+      <c r="A456" s="3"/>
     </row>
     <row r="457">
-      <c r="A457" s="5"/>
+      <c r="A457" s="3"/>
     </row>
     <row r="458">
-      <c r="A458" s="5"/>
+      <c r="A458" s="3"/>
     </row>
     <row r="459">
-      <c r="A459" s="5"/>
+      <c r="A459" s="3"/>
     </row>
     <row r="460">
-      <c r="A460" s="5"/>
+      <c r="A460" s="3"/>
     </row>
     <row r="461">
-      <c r="A461" s="5"/>
+      <c r="A461" s="3"/>
     </row>
     <row r="462">
-      <c r="A462" s="5"/>
+      <c r="A462" s="3"/>
     </row>
     <row r="463">
-      <c r="A463" s="5"/>
+      <c r="A463" s="3"/>
     </row>
     <row r="464">
-      <c r="A464" s="5"/>
+      <c r="A464" s="3"/>
     </row>
     <row r="465">
-      <c r="A465" s="5"/>
+      <c r="A465" s="3"/>
     </row>
     <row r="466">
-      <c r="A466" s="5"/>
+      <c r="A466" s="3"/>
     </row>
     <row r="467">
-      <c r="A467" s="5"/>
+      <c r="A467" s="3"/>
     </row>
     <row r="468">
-      <c r="A468" s="5"/>
+      <c r="A468" s="3"/>
     </row>
     <row r="469">
-      <c r="A469" s="5"/>
+      <c r="A469" s="3"/>
     </row>
     <row r="470">
-      <c r="A470" s="5"/>
+      <c r="A470" s="3"/>
     </row>
     <row r="471">
-      <c r="A471" s="5"/>
+      <c r="A471" s="3"/>
     </row>
     <row r="472">
-      <c r="A472" s="5"/>
+      <c r="A472" s="3"/>
     </row>
     <row r="473">
-      <c r="A473" s="5"/>
+      <c r="A473" s="3"/>
     </row>
     <row r="474">
-      <c r="A474" s="5"/>
+      <c r="A474" s="3"/>
     </row>
     <row r="475">
-      <c r="A475" s="5"/>
+      <c r="A475" s="3"/>
     </row>
     <row r="476">
-      <c r="A476" s="5"/>
+      <c r="A476" s="3"/>
     </row>
     <row r="477">
-      <c r="A477" s="5"/>
+      <c r="A477" s="3"/>
     </row>
     <row r="478">
-      <c r="A478" s="5"/>
+      <c r="A478" s="3"/>
     </row>
     <row r="479">
-      <c r="A479" s="5"/>
+      <c r="A479" s="3"/>
     </row>
     <row r="480">
-      <c r="A480" s="5"/>
+      <c r="A480" s="3"/>
     </row>
     <row r="481">
-      <c r="A481" s="5"/>
+      <c r="A481" s="3"/>
     </row>
     <row r="482">
-      <c r="A482" s="5"/>
+      <c r="A482" s="3"/>
     </row>
     <row r="483">
-      <c r="A483" s="5"/>
+      <c r="A483" s="3"/>
     </row>
     <row r="484">
-      <c r="A484" s="5"/>
+      <c r="A484" s="3"/>
     </row>
     <row r="485">
-      <c r="A485" s="5"/>
+      <c r="A485" s="3"/>
     </row>
     <row r="486">
-      <c r="A486" s="5"/>
+      <c r="A486" s="3"/>
     </row>
     <row r="487">
-      <c r="A487" s="5"/>
+      <c r="A487" s="3"/>
     </row>
     <row r="488">
-      <c r="A488" s="5"/>
+      <c r="A488" s="3"/>
     </row>
     <row r="489">
-      <c r="A489" s="5"/>
+      <c r="A489" s="3"/>
     </row>
     <row r="490">
-      <c r="A490" s="5"/>
+      <c r="A490" s="3"/>
     </row>
     <row r="491">
-      <c r="A491" s="5"/>
+      <c r="A491" s="3"/>
     </row>
     <row r="492">
-      <c r="A492" s="5"/>
+      <c r="A492" s="3"/>
     </row>
     <row r="493">
-      <c r="A493" s="5"/>
+      <c r="A493" s="3"/>
     </row>
     <row r="494">
-      <c r="A494" s="5"/>
+      <c r="A494" s="3"/>
     </row>
     <row r="495">
-      <c r="A495" s="5"/>
+      <c r="A495" s="3"/>
     </row>
     <row r="496">
-      <c r="A496" s="5"/>
+      <c r="A496" s="3"/>
     </row>
     <row r="497">
-      <c r="A497" s="5"/>
+      <c r="A497" s="3"/>
     </row>
     <row r="498">
-      <c r="A498" s="5"/>
+      <c r="A498" s="3"/>
     </row>
     <row r="499">
-      <c r="A499" s="5"/>
+      <c r="A499" s="3"/>
     </row>
     <row r="500">
-      <c r="A500" s="5"/>
+      <c r="A500" s="3"/>
     </row>
     <row r="501">
-      <c r="A501" s="5"/>
+      <c r="A501" s="3"/>
     </row>
     <row r="502">
-      <c r="A502" s="5"/>
+      <c r="A502" s="3"/>
     </row>
     <row r="503">
-      <c r="A503" s="5"/>
+      <c r="A503" s="3"/>
     </row>
     <row r="504">
-      <c r="A504" s="5"/>
+      <c r="A504" s="3"/>
     </row>
     <row r="505">
-      <c r="A505" s="5"/>
+      <c r="A505" s="3"/>
     </row>
     <row r="506">
-      <c r="A506" s="5"/>
+      <c r="A506" s="3"/>
     </row>
     <row r="507">
-      <c r="A507" s="5"/>
+      <c r="A507" s="3"/>
     </row>
     <row r="508">
-      <c r="A508" s="5"/>
+      <c r="A508" s="3"/>
     </row>
     <row r="509">
-      <c r="A509" s="5"/>
+      <c r="A509" s="3"/>
     </row>
     <row r="510">
-      <c r="A510" s="5"/>
+      <c r="A510" s="3"/>
     </row>
     <row r="511">
-      <c r="A511" s="5"/>
+      <c r="A511" s="3"/>
     </row>
     <row r="512">
-      <c r="A512" s="5"/>
+      <c r="A512" s="3"/>
     </row>
     <row r="513">
-      <c r="A513" s="5"/>
+      <c r="A513" s="3"/>
     </row>
     <row r="514">
-      <c r="A514" s="5"/>
+      <c r="A514" s="3"/>
     </row>
     <row r="515">
-      <c r="A515" s="5"/>
+      <c r="A515" s="3"/>
     </row>
     <row r="516">
-      <c r="A516" s="5"/>
+      <c r="A516" s="3"/>
     </row>
     <row r="517">
-      <c r="A517" s="5"/>
+      <c r="A517" s="3"/>
     </row>
     <row r="518">
-      <c r="A518" s="5"/>
+      <c r="A518" s="3"/>
     </row>
     <row r="519">
-      <c r="A519" s="5"/>
+      <c r="A519" s="3"/>
     </row>
     <row r="520">
-      <c r="A520" s="5"/>
+      <c r="A520" s="3"/>
     </row>
     <row r="521">
-      <c r="A521" s="5"/>
+      <c r="A521" s="3"/>
     </row>
     <row r="522">
-      <c r="A522" s="5"/>
+      <c r="A522" s="3"/>
     </row>
     <row r="523">
-      <c r="A523" s="5"/>
+      <c r="A523" s="3"/>
     </row>
     <row r="524">
-      <c r="A524" s="5"/>
+      <c r="A524" s="3"/>
     </row>
     <row r="525">
-      <c r="A525" s="5"/>
+      <c r="A525" s="3"/>
     </row>
     <row r="526">
-      <c r="A526" s="5"/>
+      <c r="A526" s="3"/>
     </row>
     <row r="527">
-      <c r="A527" s="5"/>
+      <c r="A527" s="3"/>
     </row>
     <row r="528">
-      <c r="A528" s="5"/>
+      <c r="A528" s="3"/>
     </row>
     <row r="529">
-      <c r="A529" s="5"/>
+      <c r="A529" s="3"/>
     </row>
     <row r="530">
-      <c r="A530" s="5"/>
+      <c r="A530" s="3"/>
     </row>
     <row r="531">
-      <c r="A531" s="5"/>
+      <c r="A531" s="3"/>
     </row>
     <row r="532">
-      <c r="A532" s="5"/>
+      <c r="A532" s="3"/>
     </row>
     <row r="533">
-      <c r="A533" s="5"/>
+      <c r="A533" s="3"/>
     </row>
     <row r="534">
-      <c r="A534" s="5"/>
+      <c r="A534" s="3"/>
     </row>
     <row r="535">
-      <c r="A535" s="5"/>
+      <c r="A535" s="3"/>
     </row>
     <row r="536">
-      <c r="A536" s="5"/>
+      <c r="A536" s="3"/>
     </row>
     <row r="537">
-      <c r="A537" s="5"/>
+      <c r="A537" s="3"/>
     </row>
     <row r="538">
-      <c r="A538" s="5"/>
+      <c r="A538" s="3"/>
     </row>
     <row r="539">
-      <c r="A539" s="5"/>
+      <c r="A539" s="3"/>
     </row>
     <row r="540">
-      <c r="A540" s="5"/>
+      <c r="A540" s="3"/>
     </row>
     <row r="541">
-      <c r="A541" s="5"/>
+      <c r="A541" s="3"/>
     </row>
     <row r="542">
-      <c r="A542" s="5"/>
+      <c r="A542" s="3"/>
     </row>
     <row r="543">
-      <c r="A543" s="5"/>
+      <c r="A543" s="3"/>
     </row>
     <row r="544">
-      <c r="A544" s="5"/>
+      <c r="A544" s="3"/>
     </row>
     <row r="545">
-      <c r="A545" s="5"/>
+      <c r="A545" s="3"/>
     </row>
     <row r="546">
-      <c r="A546" s="5"/>
+      <c r="A546" s="3"/>
     </row>
     <row r="547">
-      <c r="A547" s="5"/>
+      <c r="A547" s="3"/>
     </row>
     <row r="548">
-      <c r="A548" s="5"/>
+      <c r="A548" s="3"/>
     </row>
     <row r="549">
-      <c r="A549" s="5"/>
+      <c r="A549" s="3"/>
     </row>
     <row r="550">
-      <c r="A550" s="5"/>
+      <c r="A550" s="3"/>
     </row>
     <row r="551">
-      <c r="A551" s="5"/>
+      <c r="A551" s="3"/>
     </row>
     <row r="552">
-      <c r="A552" s="5"/>
+      <c r="A552" s="3"/>
     </row>
     <row r="553">
-      <c r="A553" s="5"/>
+      <c r="A553" s="3"/>
     </row>
     <row r="554">
-      <c r="A554" s="5"/>
+      <c r="A554" s="3"/>
     </row>
     <row r="555">
-      <c r="A555" s="5"/>
+      <c r="A555" s="3"/>
     </row>
     <row r="556">
-      <c r="A556" s="5"/>
+      <c r="A556" s="3"/>
     </row>
     <row r="557">
-      <c r="A557" s="5"/>
+      <c r="A557" s="3"/>
     </row>
     <row r="558">
-      <c r="A558" s="5"/>
+      <c r="A558" s="3"/>
     </row>
     <row r="559">
-      <c r="A559" s="5"/>
+      <c r="A559" s="3"/>
     </row>
     <row r="560">
-      <c r="A560" s="5"/>
+      <c r="A560" s="3"/>
     </row>
     <row r="561">
-      <c r="A561" s="5"/>
+      <c r="A561" s="3"/>
     </row>
     <row r="562">
-      <c r="A562" s="5"/>
+      <c r="A562" s="3"/>
     </row>
     <row r="563">
-      <c r="A563" s="5"/>
+      <c r="A563" s="3"/>
     </row>
     <row r="564">
-      <c r="A564" s="5"/>
+      <c r="A564" s="3"/>
     </row>
     <row r="565">
-      <c r="A565" s="5"/>
+      <c r="A565" s="3"/>
     </row>
     <row r="566">
-      <c r="A566" s="5"/>
+      <c r="A566" s="3"/>
     </row>
     <row r="567">
-      <c r="A567" s="5"/>
+      <c r="A567" s="3"/>
     </row>
     <row r="568">
-      <c r="A568" s="5"/>
+      <c r="A568" s="3"/>
     </row>
     <row r="569">
-      <c r="A569" s="5"/>
+      <c r="A569" s="3"/>
     </row>
     <row r="570">
-      <c r="A570" s="5"/>
+      <c r="A570" s="3"/>
     </row>
     <row r="571">
-      <c r="A571" s="5"/>
+      <c r="A571" s="3"/>
     </row>
     <row r="572">
-      <c r="A572" s="5"/>
+      <c r="A572" s="3"/>
     </row>
     <row r="573">
-      <c r="A573" s="5"/>
+      <c r="A573" s="3"/>
     </row>
     <row r="574">
-      <c r="A574" s="5"/>
+      <c r="A574" s="3"/>
     </row>
     <row r="575">
-      <c r="A575" s="5"/>
+      <c r="A575" s="3"/>
     </row>
     <row r="576">
-      <c r="A576" s="5"/>
+      <c r="A576" s="3"/>
     </row>
     <row r="577">
-      <c r="A577" s="5"/>
+      <c r="A577" s="3"/>
     </row>
     <row r="578">
-      <c r="A578" s="5"/>
+      <c r="A578" s="3"/>
     </row>
     <row r="579">
-      <c r="A579" s="5"/>
+      <c r="A579" s="3"/>
     </row>
     <row r="580">
-      <c r="A580" s="5"/>
+      <c r="A580" s="3"/>
     </row>
     <row r="581">
-      <c r="A581" s="5"/>
+      <c r="A581" s="3"/>
     </row>
     <row r="582">
-      <c r="A582" s="5"/>
+      <c r="A582" s="3"/>
     </row>
     <row r="583">
-      <c r="A583" s="5"/>
+      <c r="A583" s="3"/>
     </row>
     <row r="584">
-      <c r="A584" s="5"/>
+      <c r="A584" s="3"/>
     </row>
     <row r="585">
-      <c r="A585" s="5"/>
+      <c r="A585" s="3"/>
     </row>
     <row r="586">
-      <c r="A586" s="5"/>
+      <c r="A586" s="3"/>
     </row>
     <row r="587">
-      <c r="A587" s="5"/>
+      <c r="A587" s="3"/>
     </row>
     <row r="588">
-      <c r="A588" s="5"/>
+      <c r="A588" s="3"/>
     </row>
     <row r="589">
-      <c r="A589" s="5"/>
+      <c r="A589" s="3"/>
     </row>
     <row r="590">
-      <c r="A590" s="5"/>
+      <c r="A590" s="3"/>
     </row>
     <row r="591">
-      <c r="A591" s="5"/>
+      <c r="A591" s="3"/>
     </row>
     <row r="592">
-      <c r="A592" s="5"/>
+      <c r="A592" s="3"/>
     </row>
     <row r="593">
-      <c r="A593" s="5"/>
+      <c r="A593" s="3"/>
     </row>
     <row r="594">
-      <c r="A594" s="5"/>
+      <c r="A594" s="3"/>
     </row>
     <row r="595">
-      <c r="A595" s="5"/>
+      <c r="A595" s="3"/>
     </row>
     <row r="596">
-      <c r="A596" s="5"/>
+      <c r="A596" s="3"/>
     </row>
     <row r="597">
-      <c r="A597" s="5"/>
+      <c r="A597" s="3"/>
     </row>
     <row r="598">
-      <c r="A598" s="5"/>
+      <c r="A598" s="3"/>
     </row>
     <row r="599">
-      <c r="A599" s="5"/>
+      <c r="A599" s="3"/>
     </row>
     <row r="600">
-      <c r="A600" s="5"/>
+      <c r="A600" s="3"/>
     </row>
     <row r="601">
-      <c r="A601" s="5"/>
+      <c r="A601" s="3"/>
     </row>
     <row r="602">
-      <c r="A602" s="5"/>
+      <c r="A602" s="3"/>
     </row>
     <row r="603">
-      <c r="A603" s="5"/>
+      <c r="A603" s="3"/>
     </row>
     <row r="604">
-      <c r="A604" s="5"/>
+      <c r="A604" s="3"/>
     </row>
     <row r="605">
-      <c r="A605" s="5"/>
+      <c r="A605" s="3"/>
     </row>
     <row r="606">
-      <c r="A606" s="5"/>
+      <c r="A606" s="3"/>
     </row>
     <row r="607">
-      <c r="A607" s="5"/>
+      <c r="A607" s="3"/>
     </row>
     <row r="608">
-      <c r="A608" s="5"/>
+      <c r="A608" s="3"/>
     </row>
     <row r="609">
-      <c r="A609" s="5"/>
+      <c r="A609" s="3"/>
     </row>
     <row r="610">
-      <c r="A610" s="5"/>
+      <c r="A610" s="3"/>
     </row>
     <row r="611">
-      <c r="A611" s="5"/>
+      <c r="A611" s="3"/>
     </row>
     <row r="612">
-      <c r="A612" s="5"/>
+      <c r="A612" s="3"/>
     </row>
     <row r="613">
-      <c r="A613" s="5"/>
+      <c r="A613" s="3"/>
     </row>
     <row r="614">
-      <c r="A614" s="5"/>
+      <c r="A614" s="3"/>
     </row>
     <row r="615">
-      <c r="A615" s="5"/>
+      <c r="A615" s="3"/>
     </row>
     <row r="616">
-      <c r="A616" s="5"/>
+      <c r="A616" s="3"/>
     </row>
     <row r="617">
-      <c r="A617" s="5"/>
+      <c r="A617" s="3"/>
     </row>
     <row r="618">
-      <c r="A618" s="5"/>
+      <c r="A618" s="3"/>
     </row>
     <row r="619">
-      <c r="A619" s="5"/>
+      <c r="A619" s="3"/>
     </row>
     <row r="620">
-      <c r="A620" s="5"/>
+      <c r="A620" s="3"/>
     </row>
     <row r="621">
-      <c r="A621" s="5"/>
+      <c r="A621" s="3"/>
     </row>
     <row r="622">
-      <c r="A622" s="5"/>
+      <c r="A622" s="3"/>
     </row>
     <row r="623">
-      <c r="A623" s="5"/>
+      <c r="A623" s="3"/>
     </row>
     <row r="624">
-      <c r="A624" s="5"/>
+      <c r="A624" s="3"/>
     </row>
     <row r="625">
-      <c r="A625" s="5"/>
+      <c r="A625" s="3"/>
     </row>
     <row r="626">
-      <c r="A626" s="5"/>
+      <c r="A626" s="3"/>
     </row>
     <row r="627">
-      <c r="A627" s="5"/>
+      <c r="A627" s="3"/>
     </row>
     <row r="628">
-      <c r="A628" s="5"/>
+      <c r="A628" s="3"/>
     </row>
     <row r="629">
-      <c r="A629" s="5"/>
+      <c r="A629" s="3"/>
     </row>
     <row r="630">
-      <c r="A630" s="5"/>
+      <c r="A630" s="3"/>
     </row>
     <row r="631">
-      <c r="A631" s="5"/>
+      <c r="A631" s="3"/>
     </row>
     <row r="632">
-      <c r="A632" s="5"/>
+      <c r="A632" s="3"/>
     </row>
     <row r="633">
-      <c r="A633" s="5"/>
+      <c r="A633" s="3"/>
     </row>
     <row r="634">
-      <c r="A634" s="5"/>
+      <c r="A634" s="3"/>
     </row>
     <row r="635">
-      <c r="A635" s="5"/>
+      <c r="A635" s="3"/>
     </row>
     <row r="636">
-      <c r="A636" s="5"/>
+      <c r="A636" s="3"/>
     </row>
     <row r="637">
-      <c r="A637" s="5"/>
+      <c r="A637" s="3"/>
     </row>
     <row r="638">
-      <c r="A638" s="5"/>
+      <c r="A638" s="3"/>
     </row>
     <row r="639">
-      <c r="A639" s="5"/>
+      <c r="A639" s="3"/>
     </row>
     <row r="640">
-      <c r="A640" s="5"/>
+      <c r="A640" s="3"/>
     </row>
     <row r="641">
-      <c r="A641" s="5"/>
+      <c r="A641" s="3"/>
     </row>
     <row r="642">
-      <c r="A642" s="5"/>
+      <c r="A642" s="3"/>
     </row>
     <row r="643">
-      <c r="A643" s="5"/>
+      <c r="A643" s="3"/>
     </row>
     <row r="644">
-      <c r="A644" s="5"/>
+      <c r="A644" s="3"/>
     </row>
     <row r="645">
-      <c r="A645" s="5"/>
+      <c r="A645" s="3"/>
     </row>
     <row r="646">
-      <c r="A646" s="5"/>
+      <c r="A646" s="3"/>
     </row>
     <row r="647">
-      <c r="A647" s="5"/>
+      <c r="A647" s="3"/>
     </row>
     <row r="648">
-      <c r="A648" s="5"/>
+      <c r="A648" s="3"/>
     </row>
     <row r="649">
-      <c r="A649" s="5"/>
+      <c r="A649" s="3"/>
     </row>
     <row r="650">
-      <c r="A650" s="5"/>
+      <c r="A650" s="3"/>
     </row>
     <row r="651">
-      <c r="A651" s="5"/>
+      <c r="A651" s="3"/>
     </row>
     <row r="652">
-      <c r="A652" s="5"/>
+      <c r="A652" s="3"/>
     </row>
     <row r="653">
-      <c r="A653" s="5"/>
+      <c r="A653" s="3"/>
     </row>
     <row r="654">
-      <c r="A654" s="5"/>
+      <c r="A654" s="3"/>
     </row>
     <row r="655">
-      <c r="A655" s="5"/>
+      <c r="A655" s="3"/>
     </row>
     <row r="656">
-      <c r="A656" s="5"/>
+      <c r="A656" s="3"/>
     </row>
     <row r="657">
-      <c r="A657" s="5"/>
+      <c r="A657" s="3"/>
     </row>
     <row r="658">
-      <c r="A658" s="5"/>
+      <c r="A658" s="3"/>
     </row>
     <row r="659">
-      <c r="A659" s="5"/>
+      <c r="A659" s="3"/>
     </row>
     <row r="660">
-      <c r="A660" s="5"/>
+      <c r="A660" s="3"/>
     </row>
     <row r="661">
-      <c r="A661" s="5"/>
+      <c r="A661" s="3"/>
     </row>
     <row r="662">
-      <c r="A662" s="5"/>
+      <c r="A662" s="3"/>
     </row>
     <row r="663">
-      <c r="A663" s="5"/>
+      <c r="A663" s="3"/>
     </row>
     <row r="664">
-      <c r="A664" s="5"/>
+      <c r="A664" s="3"/>
     </row>
     <row r="665">
-      <c r="A665" s="5"/>
+      <c r="A665" s="3"/>
     </row>
     <row r="666">
-      <c r="A666" s="5"/>
+      <c r="A666" s="3"/>
     </row>
     <row r="667">
-      <c r="A667" s="5"/>
+      <c r="A667" s="3"/>
     </row>
     <row r="668">
-      <c r="A668" s="5"/>
+      <c r="A668" s="3"/>
     </row>
     <row r="669">
-      <c r="A669" s="5"/>
+      <c r="A669" s="3"/>
     </row>
     <row r="670">
-      <c r="A670" s="5"/>
+      <c r="A670" s="3"/>
     </row>
     <row r="671">
-      <c r="A671" s="5"/>
+      <c r="A671" s="3"/>
     </row>
     <row r="672">
-      <c r="A672" s="5"/>
+      <c r="A672" s="3"/>
     </row>
     <row r="673">
-      <c r="A673" s="5"/>
+      <c r="A673" s="3"/>
     </row>
     <row r="674">
-      <c r="A674" s="5"/>
+      <c r="A674" s="3"/>
     </row>
     <row r="675">
-      <c r="A675" s="5"/>
+      <c r="A675" s="3"/>
     </row>
     <row r="676">
-      <c r="A676" s="5"/>
+      <c r="A676" s="3"/>
     </row>
     <row r="677">
-      <c r="A677" s="5"/>
+      <c r="A677" s="3"/>
     </row>
     <row r="678">
-      <c r="A678" s="5"/>
+      <c r="A678" s="3"/>
     </row>
     <row r="679">
-      <c r="A679" s="5"/>
+      <c r="A679" s="3"/>
     </row>
     <row r="680">
-      <c r="A680" s="5"/>
+      <c r="A680" s="3"/>
     </row>
     <row r="681">
-      <c r="A681" s="5"/>
+      <c r="A681" s="3"/>
     </row>
     <row r="682">
-      <c r="A682" s="5"/>
+      <c r="A682" s="3"/>
     </row>
     <row r="683">
-      <c r="A683" s="5"/>
+      <c r="A683" s="3"/>
     </row>
     <row r="684">
-      <c r="A684" s="5"/>
+      <c r="A684" s="3"/>
     </row>
     <row r="685">
-      <c r="A685" s="5"/>
+      <c r="A685" s="3"/>
     </row>
     <row r="686">
-      <c r="A686" s="5"/>
+      <c r="A686" s="3"/>
     </row>
     <row r="687">
-      <c r="A687" s="5"/>
+      <c r="A687" s="3"/>
     </row>
     <row r="688">
-      <c r="A688" s="5"/>
+      <c r="A688" s="3"/>
     </row>
     <row r="689">
-      <c r="A689" s="5"/>
+      <c r="A689" s="3"/>
     </row>
     <row r="690">
-      <c r="A690" s="5"/>
+      <c r="A690" s="3"/>
     </row>
     <row r="691">
-      <c r="A691" s="5"/>
+      <c r="A691" s="3"/>
     </row>
     <row r="692">
-      <c r="A692" s="5"/>
+      <c r="A692" s="3"/>
     </row>
     <row r="693">
-      <c r="A693" s="5"/>
+      <c r="A693" s="3"/>
     </row>
     <row r="694">
-      <c r="A694" s="5"/>
+      <c r="A694" s="3"/>
     </row>
     <row r="695">
-      <c r="A695" s="5"/>
+      <c r="A695" s="3"/>
     </row>
     <row r="696">
-      <c r="A696" s="5"/>
+      <c r="A696" s="3"/>
     </row>
     <row r="697">
-      <c r="A697" s="5"/>
+      <c r="A697" s="3"/>
     </row>
     <row r="698">
-      <c r="A698" s="5"/>
+      <c r="A698" s="3"/>
     </row>
     <row r="699">
-      <c r="A699" s="5"/>
+      <c r="A699" s="3"/>
     </row>
     <row r="700">
-      <c r="A700" s="5"/>
+      <c r="A700" s="3"/>
     </row>
     <row r="701">
-      <c r="A701" s="5"/>
+      <c r="A701" s="3"/>
     </row>
     <row r="702">
-      <c r="A702" s="5"/>
+      <c r="A702" s="3"/>
     </row>
     <row r="703">
-      <c r="A703" s="5"/>
+      <c r="A703" s="3"/>
     </row>
     <row r="704">
-      <c r="A704" s="5"/>
+      <c r="A704" s="3"/>
     </row>
     <row r="705">
-      <c r="A705" s="5"/>
+      <c r="A705" s="3"/>
     </row>
     <row r="706">
-      <c r="A706" s="5"/>
+      <c r="A706" s="3"/>
     </row>
     <row r="707">
-      <c r="A707" s="5"/>
+      <c r="A707" s="3"/>
     </row>
     <row r="708">
-      <c r="A708" s="5"/>
+      <c r="A708" s="3"/>
     </row>
     <row r="709">
-      <c r="A709" s="5"/>
+      <c r="A709" s="3"/>
     </row>
     <row r="710">
-      <c r="A710" s="5"/>
+      <c r="A710" s="3"/>
     </row>
     <row r="711">
-      <c r="A711" s="5"/>
+      <c r="A711" s="3"/>
     </row>
     <row r="712">
-      <c r="A712" s="5"/>
+      <c r="A712" s="3"/>
     </row>
     <row r="713">
-      <c r="A713" s="5"/>
+      <c r="A713" s="3"/>
     </row>
     <row r="714">
-      <c r="A714" s="5"/>
+      <c r="A714" s="3"/>
     </row>
     <row r="715">
-      <c r="A715" s="5"/>
+      <c r="A715" s="3"/>
     </row>
     <row r="716">
-      <c r="A716" s="5"/>
+      <c r="A716" s="3"/>
     </row>
     <row r="717">
-      <c r="A717" s="5"/>
+      <c r="A717" s="3"/>
     </row>
     <row r="718">
-      <c r="A718" s="5"/>
+      <c r="A718" s="3"/>
     </row>
     <row r="719">
-      <c r="A719" s="5"/>
+      <c r="A719" s="3"/>
     </row>
     <row r="720">
-      <c r="A720" s="5"/>
+      <c r="A720" s="3"/>
     </row>
     <row r="721">
-      <c r="A721" s="5"/>
+      <c r="A721" s="3"/>
     </row>
     <row r="722">
-      <c r="A722" s="5"/>
+      <c r="A722" s="3"/>
     </row>
     <row r="723">
-      <c r="A723" s="5"/>
+      <c r="A723" s="3"/>
     </row>
     <row r="724">
-      <c r="A724" s="5"/>
+      <c r="A724" s="3"/>
     </row>
     <row r="725">
-      <c r="A725" s="5"/>
+      <c r="A725" s="3"/>
     </row>
     <row r="726">
-      <c r="A726" s="5"/>
+      <c r="A726" s="3"/>
     </row>
     <row r="727">
-      <c r="A727" s="5"/>
+      <c r="A727" s="3"/>
     </row>
     <row r="728">
-      <c r="A728" s="5"/>
+      <c r="A728" s="3"/>
     </row>
     <row r="729">
-      <c r="A729" s="5"/>
+      <c r="A729" s="3"/>
     </row>
     <row r="730">
-      <c r="A730" s="5"/>
+      <c r="A730" s="3"/>
     </row>
     <row r="731">
-      <c r="A731" s="5"/>
+      <c r="A731" s="3"/>
     </row>
     <row r="732">
-      <c r="A732" s="5"/>
+      <c r="A732" s="3"/>
     </row>
     <row r="733">
-      <c r="A733" s="5"/>
+      <c r="A733" s="3"/>
     </row>
     <row r="734">
-      <c r="A734" s="5"/>
+      <c r="A734" s="3"/>
     </row>
     <row r="735">
-      <c r="A735" s="5"/>
+      <c r="A735" s="3"/>
     </row>
     <row r="736">
-      <c r="A736" s="5"/>
+      <c r="A736" s="3"/>
     </row>
     <row r="737">
-      <c r="A737" s="5"/>
+      <c r="A737" s="3"/>
     </row>
     <row r="738">
-      <c r="A738" s="5"/>
+      <c r="A738" s="3"/>
     </row>
     <row r="739">
-      <c r="A739" s="5"/>
+      <c r="A739" s="3"/>
     </row>
     <row r="740">
-      <c r="A740" s="5"/>
+      <c r="A740" s="3"/>
     </row>
     <row r="741">
-      <c r="A741" s="5"/>
+      <c r="A741" s="3"/>
     </row>
     <row r="742">
-      <c r="A742" s="5"/>
+      <c r="A742" s="3"/>
     </row>
     <row r="743">
-      <c r="A743" s="5"/>
+      <c r="A743" s="3"/>
     </row>
     <row r="744">
-      <c r="A744" s="5"/>
+      <c r="A744" s="3"/>
     </row>
     <row r="745">
-      <c r="A745" s="5"/>
+      <c r="A745" s="3"/>
     </row>
     <row r="746">
-      <c r="A746" s="5"/>
+      <c r="A746" s="3"/>
     </row>
     <row r="747">
-      <c r="A747" s="5"/>
+      <c r="A747" s="3"/>
     </row>
     <row r="748">
-      <c r="A748" s="5"/>
+      <c r="A748" s="3"/>
     </row>
     <row r="749">
-      <c r="A749" s="5"/>
+      <c r="A749" s="3"/>
     </row>
     <row r="750">
-      <c r="A750" s="5"/>
+      <c r="A750" s="3"/>
     </row>
     <row r="751">
-      <c r="A751" s="5"/>
+      <c r="A751" s="3"/>
     </row>
     <row r="752">
-      <c r="A752" s="5"/>
+      <c r="A752" s="3"/>
     </row>
     <row r="753">
-      <c r="A753" s="5"/>
+      <c r="A753" s="3"/>
     </row>
     <row r="754">
-      <c r="A754" s="5"/>
+      <c r="A754" s="3"/>
     </row>
     <row r="755">
-      <c r="A755" s="5"/>
+      <c r="A755" s="3"/>
     </row>
     <row r="756">
-      <c r="A756" s="5"/>
+      <c r="A756" s="3"/>
     </row>
     <row r="757">
-      <c r="A757" s="5"/>
+      <c r="A757" s="3"/>
     </row>
     <row r="758">
-      <c r="A758" s="5"/>
+      <c r="A758" s="3"/>
     </row>
     <row r="759">
-      <c r="A759" s="5"/>
+      <c r="A759" s="3"/>
     </row>
     <row r="760">
-      <c r="A760" s="5"/>
+      <c r="A760" s="3"/>
     </row>
     <row r="761">
-      <c r="A761" s="5"/>
+      <c r="A761" s="3"/>
     </row>
     <row r="762">
-      <c r="A762" s="5"/>
+      <c r="A762" s="3"/>
     </row>
     <row r="763">
-      <c r="A763" s="5"/>
+      <c r="A763" s="3"/>
     </row>
     <row r="764">
-      <c r="A764" s="5"/>
+      <c r="A764" s="3"/>
     </row>
     <row r="765">
-      <c r="A765" s="5"/>
+      <c r="A765" s="3"/>
     </row>
     <row r="766">
-      <c r="A766" s="5"/>
+      <c r="A766" s="3"/>
     </row>
     <row r="767">
-      <c r="A767" s="5"/>
+      <c r="A767" s="3"/>
     </row>
     <row r="768">
-      <c r="A768" s="5"/>
+      <c r="A768" s="3"/>
     </row>
     <row r="769">
-      <c r="A769" s="5"/>
+      <c r="A769" s="3"/>
     </row>
     <row r="770">
-      <c r="A770" s="5"/>
+      <c r="A770" s="3"/>
     </row>
     <row r="771">
-      <c r="A771" s="5"/>
+      <c r="A771" s="3"/>
     </row>
     <row r="772">
-      <c r="A772" s="5"/>
+      <c r="A772" s="3"/>
     </row>
     <row r="773">
-      <c r="A773" s="5"/>
+      <c r="A773" s="3"/>
     </row>
     <row r="774">
-      <c r="A774" s="5"/>
+      <c r="A774" s="3"/>
     </row>
     <row r="775">
-      <c r="A775" s="5"/>
+      <c r="A775" s="3"/>
     </row>
     <row r="776">
-      <c r="A776" s="5"/>
+      <c r="A776" s="3"/>
     </row>
     <row r="777">
-      <c r="A777" s="5"/>
+      <c r="A777" s="3"/>
     </row>
     <row r="778">
-      <c r="A778" s="5"/>
+      <c r="A778" s="3"/>
     </row>
     <row r="779">
-      <c r="A779" s="5"/>
+      <c r="A779" s="3"/>
     </row>
     <row r="780">
-      <c r="A780" s="5"/>
+      <c r="A780" s="3"/>
     </row>
     <row r="781">
-      <c r="A781" s="5"/>
+      <c r="A781" s="3"/>
     </row>
     <row r="782">
-      <c r="A782" s="5"/>
+      <c r="A782" s="3"/>
     </row>
     <row r="783">
-      <c r="A783" s="5"/>
+      <c r="A783" s="3"/>
     </row>
     <row r="784">
-      <c r="A784" s="5"/>
+      <c r="A784" s="3"/>
     </row>
     <row r="785">
-      <c r="A785" s="5"/>
+      <c r="A785" s="3"/>
     </row>
     <row r="786">
-      <c r="A786" s="5"/>
+      <c r="A786" s="3"/>
     </row>
     <row r="787">
-      <c r="A787" s="5"/>
+      <c r="A787" s="3"/>
     </row>
     <row r="788">
-      <c r="A788" s="5"/>
+      <c r="A788" s="3"/>
     </row>
     <row r="789">
-      <c r="A789" s="5"/>
+      <c r="A789" s="3"/>
     </row>
     <row r="790">
-      <c r="A790" s="5"/>
+      <c r="A790" s="3"/>
     </row>
     <row r="791">
-      <c r="A791" s="5"/>
+      <c r="A791" s="3"/>
     </row>
     <row r="792">
-      <c r="A792" s="5"/>
+      <c r="A792" s="3"/>
     </row>
     <row r="793">
-      <c r="A793" s="5"/>
+      <c r="A793" s="3"/>
     </row>
     <row r="794">
-      <c r="A794" s="5"/>
+      <c r="A794" s="3"/>
     </row>
     <row r="795">
-      <c r="A795" s="5"/>
+      <c r="A795" s="3"/>
     </row>
     <row r="796">
-      <c r="A796" s="5"/>
+      <c r="A796" s="3"/>
     </row>
     <row r="797">
-      <c r="A797" s="5"/>
+      <c r="A797" s="3"/>
     </row>
     <row r="798">
-      <c r="A798" s="5"/>
+      <c r="A798" s="3"/>
     </row>
     <row r="799">
-      <c r="A799" s="5"/>
+      <c r="A799" s="3"/>
     </row>
     <row r="800">
-      <c r="A800" s="5"/>
+      <c r="A800" s="3"/>
     </row>
     <row r="801">
-      <c r="A801" s="5"/>
+      <c r="A801" s="3"/>
     </row>
     <row r="802">
-      <c r="A802" s="5"/>
+      <c r="A802" s="3"/>
     </row>
     <row r="803">
-      <c r="A803" s="5"/>
+      <c r="A803" s="3"/>
     </row>
     <row r="804">
-      <c r="A804" s="5"/>
+      <c r="A804" s="3"/>
     </row>
     <row r="805">
-      <c r="A805" s="5"/>
+      <c r="A805" s="3"/>
     </row>
     <row r="806">
-      <c r="A806" s="5"/>
+      <c r="A806" s="3"/>
     </row>
     <row r="807">
-      <c r="A807" s="5"/>
+      <c r="A807" s="3"/>
     </row>
     <row r="808">
-      <c r="A808" s="5"/>
+      <c r="A808" s="3"/>
     </row>
     <row r="809">
-      <c r="A809" s="5"/>
+      <c r="A809" s="3"/>
     </row>
     <row r="810">
-      <c r="A810" s="5"/>
+      <c r="A810" s="3"/>
     </row>
     <row r="811">
-      <c r="A811" s="5"/>
+      <c r="A811" s="3"/>
     </row>
     <row r="812">
-      <c r="A812" s="5"/>
+      <c r="A812" s="3"/>
     </row>
     <row r="813">
-      <c r="A813" s="5"/>
+      <c r="A813" s="3"/>
     </row>
     <row r="814">
-      <c r="A814" s="5"/>
+      <c r="A814" s="3"/>
     </row>
     <row r="815">
-      <c r="A815" s="5"/>
+      <c r="A815" s="3"/>
     </row>
     <row r="816">
-      <c r="A816" s="5"/>
+      <c r="A816" s="3"/>
     </row>
     <row r="817">
-      <c r="A817" s="5"/>
+      <c r="A817" s="3"/>
     </row>
     <row r="818">
-      <c r="A818" s="5"/>
+      <c r="A818" s="3"/>
     </row>
     <row r="819">
-      <c r="A819" s="5"/>
+      <c r="A819" s="3"/>
     </row>
     <row r="820">
-      <c r="A820" s="5"/>
+      <c r="A820" s="3"/>
     </row>
     <row r="821">
-      <c r="A821" s="5"/>
+      <c r="A821" s="3"/>
     </row>
     <row r="822">
-      <c r="A822" s="5"/>
+      <c r="A822" s="3"/>
     </row>
     <row r="823">
-      <c r="A823" s="5"/>
+      <c r="A823" s="3"/>
     </row>
     <row r="824">
-      <c r="A824" s="5"/>
+      <c r="A824" s="3"/>
     </row>
     <row r="825">
-      <c r="A825" s="5"/>
+      <c r="A825" s="3"/>
     </row>
     <row r="826">
-      <c r="A826" s="5"/>
+      <c r="A826" s="3"/>
     </row>
     <row r="827">
-      <c r="A827" s="5"/>
+      <c r="A827" s="3"/>
     </row>
     <row r="828">
-      <c r="A828" s="5"/>
+      <c r="A828" s="3"/>
     </row>
     <row r="829">
-      <c r="A829" s="5"/>
+      <c r="A829" s="3"/>
     </row>
     <row r="830">
-      <c r="A830" s="5"/>
+      <c r="A830" s="3"/>
     </row>
     <row r="831">
-      <c r="A831" s="5"/>
+      <c r="A831" s="3"/>
     </row>
     <row r="832">
-      <c r="A832" s="5"/>
+      <c r="A832" s="3"/>
     </row>
     <row r="833">
-      <c r="A833" s="5"/>
+      <c r="A833" s="3"/>
     </row>
     <row r="834">
-      <c r="A834" s="5"/>
+      <c r="A834" s="3"/>
     </row>
     <row r="835">
-      <c r="A835" s="5"/>
+      <c r="A835" s="3"/>
     </row>
     <row r="836">
-      <c r="A836" s="5"/>
+      <c r="A836" s="3"/>
     </row>
     <row r="837">
-      <c r="A837" s="5"/>
+      <c r="A837" s="3"/>
     </row>
     <row r="838">
-      <c r="A838" s="5"/>
+      <c r="A838" s="3"/>
     </row>
     <row r="839">
-      <c r="A839" s="5"/>
+      <c r="A839" s="3"/>
     </row>
     <row r="840">
-      <c r="A840" s="5"/>
+      <c r="A840" s="3"/>
     </row>
     <row r="841">
-      <c r="A841" s="5"/>
+      <c r="A841" s="3"/>
     </row>
     <row r="842">
-      <c r="A842" s="5"/>
+      <c r="A842" s="3"/>
     </row>
     <row r="843">
-      <c r="A843" s="5"/>
+      <c r="A843" s="3"/>
     </row>
     <row r="844">
-      <c r="A844" s="5"/>
+      <c r="A844" s="3"/>
     </row>
     <row r="845">
-      <c r="A845" s="5"/>
+      <c r="A845" s="3"/>
     </row>
     <row r="846">
-      <c r="A846" s="5"/>
+      <c r="A846" s="3"/>
     </row>
     <row r="847">
-      <c r="A847" s="5"/>
+      <c r="A847" s="3"/>
     </row>
     <row r="848">
-      <c r="A848" s="5"/>
+      <c r="A848" s="3"/>
     </row>
     <row r="849">
-      <c r="A849" s="5"/>
+      <c r="A849" s="3"/>
     </row>
     <row r="850">
-      <c r="A850" s="5"/>
+      <c r="A850" s="3"/>
     </row>
     <row r="851">
-      <c r="A851" s="5"/>
+      <c r="A851" s="3"/>
     </row>
     <row r="852">
-      <c r="A852" s="5"/>
+      <c r="A852" s="3"/>
     </row>
     <row r="853">
-      <c r="A853" s="5"/>
+      <c r="A853" s="3"/>
     </row>
     <row r="854">
-      <c r="A854" s="5"/>
+      <c r="A854" s="3"/>
     </row>
     <row r="855">
-      <c r="A855" s="5"/>
+      <c r="A855" s="3"/>
     </row>
     <row r="856">
-      <c r="A856" s="5"/>
+      <c r="A856" s="3"/>
     </row>
     <row r="857">
-      <c r="A857" s="5"/>
+      <c r="A857" s="3"/>
     </row>
     <row r="858">
-      <c r="A858" s="5"/>
+      <c r="A858" s="3"/>
     </row>
     <row r="859">
-      <c r="A859" s="5"/>
+      <c r="A859" s="3"/>
     </row>
     <row r="860">
-      <c r="A860" s="5"/>
+      <c r="A860" s="3"/>
     </row>
     <row r="861">
-      <c r="A861" s="5"/>
+      <c r="A861" s="3"/>
     </row>
     <row r="862">
-      <c r="A862" s="5"/>
+      <c r="A862" s="3"/>
     </row>
     <row r="863">
-      <c r="A863" s="5"/>
+      <c r="A863" s="3"/>
     </row>
     <row r="864">
-      <c r="A864" s="5"/>
+      <c r="A864" s="3"/>
     </row>
     <row r="865">
-      <c r="A865" s="5"/>
+      <c r="A865" s="3"/>
     </row>
     <row r="866">
-      <c r="A866" s="5"/>
+      <c r="A866" s="3"/>
     </row>
     <row r="867">
-      <c r="A867" s="5"/>
+      <c r="A867" s="3"/>
     </row>
     <row r="868">
-      <c r="A868" s="5"/>
+      <c r="A868" s="3"/>
     </row>
     <row r="869">
-      <c r="A869" s="5"/>
+      <c r="A869" s="3"/>
     </row>
     <row r="870">
-      <c r="A870" s="5"/>
+      <c r="A870" s="3"/>
     </row>
     <row r="871">
-      <c r="A871" s="5"/>
+      <c r="A871" s="3"/>
     </row>
     <row r="872">
-      <c r="A872" s="5"/>
+      <c r="A872" s="3"/>
     </row>
     <row r="873">
-      <c r="A873" s="5"/>
+      <c r="A873" s="3"/>
     </row>
     <row r="874">
-      <c r="A874" s="5"/>
+      <c r="A874" s="3"/>
     </row>
     <row r="875">
-      <c r="A875" s="5"/>
+      <c r="A875" s="3"/>
     </row>
     <row r="876">
-      <c r="A876" s="5"/>
+      <c r="A876" s="3"/>
     </row>
     <row r="877">
-      <c r="A877" s="5"/>
+      <c r="A877" s="3"/>
     </row>
     <row r="878">
-      <c r="A878" s="5"/>
+      <c r="A878" s="3"/>
     </row>
     <row r="879">
-      <c r="A879" s="5"/>
+      <c r="A879" s="3"/>
     </row>
     <row r="880">
-      <c r="A880" s="5"/>
+      <c r="A880" s="3"/>
     </row>
     <row r="881">
-      <c r="A881" s="5"/>
+      <c r="A881" s="3"/>
     </row>
     <row r="882">
-      <c r="A882" s="5"/>
+      <c r="A882" s="3"/>
     </row>
     <row r="883">
-      <c r="A883" s="5"/>
+      <c r="A883" s="3"/>
     </row>
     <row r="884">
-      <c r="A884" s="5"/>
+      <c r="A884" s="3"/>
     </row>
     <row r="885">
-      <c r="A885" s="5"/>
+      <c r="A885" s="3"/>
     </row>
     <row r="886">
-      <c r="A886" s="5"/>
+      <c r="A886" s="3"/>
     </row>
     <row r="887">
-      <c r="A887" s="5"/>
+      <c r="A887" s="3"/>
     </row>
     <row r="888">
-      <c r="A888" s="5"/>
+      <c r="A888" s="3"/>
     </row>
     <row r="889">
-      <c r="A889" s="5"/>
+      <c r="A889" s="3"/>
     </row>
     <row r="890">
-      <c r="A890" s="5"/>
+      <c r="A890" s="3"/>
     </row>
     <row r="891">
-      <c r="A891" s="5"/>
+      <c r="A891" s="3"/>
     </row>
     <row r="892">
-      <c r="A892" s="5"/>
+      <c r="A892" s="3"/>
     </row>
     <row r="893">
-      <c r="A893" s="5"/>
+      <c r="A893" s="3"/>
     </row>
     <row r="894">
-      <c r="A894" s="5"/>
+      <c r="A894" s="3"/>
     </row>
     <row r="895">
-      <c r="A895" s="5"/>
+      <c r="A895" s="3"/>
     </row>
     <row r="896">
-      <c r="A896" s="5"/>
+      <c r="A896" s="3"/>
     </row>
     <row r="897">
-      <c r="A897" s="5"/>
+      <c r="A897" s="3"/>
     </row>
     <row r="898">
-      <c r="A898" s="5"/>
+      <c r="A898" s="3"/>
     </row>
     <row r="899">
-      <c r="A899" s="5"/>
+      <c r="A899" s="3"/>
     </row>
     <row r="900">
-      <c r="A900" s="5"/>
+      <c r="A900" s="3"/>
     </row>
     <row r="901">
-      <c r="A901" s="5"/>
+      <c r="A901" s="3"/>
     </row>
     <row r="902">
-      <c r="A902" s="5"/>
+      <c r="A902" s="3"/>
     </row>
     <row r="903">
-      <c r="A903" s="5"/>
+      <c r="A903" s="3"/>
     </row>
     <row r="904">
-      <c r="A904" s="5"/>
+      <c r="A904" s="3"/>
     </row>
     <row r="905">
-      <c r="A905" s="5"/>
+      <c r="A905" s="3"/>
     </row>
     <row r="906">
-      <c r="A906" s="5"/>
+      <c r="A906" s="3"/>
     </row>
     <row r="907">
-      <c r="A907" s="5"/>
+      <c r="A907" s="3"/>
     </row>
     <row r="908">
-      <c r="A908" s="5"/>
+      <c r="A908" s="3"/>
     </row>
     <row r="909">
-      <c r="A909" s="5"/>
+      <c r="A909" s="3"/>
     </row>
     <row r="910">
-      <c r="A910" s="5"/>
+      <c r="A910" s="3"/>
     </row>
     <row r="911">
-      <c r="A911" s="5"/>
+      <c r="A911" s="3"/>
     </row>
     <row r="912">
-      <c r="A912" s="5"/>
+      <c r="A912" s="3"/>
     </row>
     <row r="913">
-      <c r="A913" s="5"/>
+      <c r="A913" s="3"/>
     </row>
     <row r="914">
-      <c r="A914" s="5"/>
+      <c r="A914" s="3"/>
     </row>
     <row r="915">
-      <c r="A915" s="5"/>
+      <c r="A915" s="3"/>
     </row>
     <row r="916">
-      <c r="A916" s="5"/>
+      <c r="A916" s="3"/>
     </row>
     <row r="917">
-      <c r="A917" s="5"/>
+      <c r="A917" s="3"/>
     </row>
     <row r="918">
-      <c r="A918" s="5"/>
+      <c r="A918" s="3"/>
     </row>
     <row r="919">
-      <c r="A919" s="5"/>
+      <c r="A919" s="3"/>
     </row>
     <row r="920">
-      <c r="A920" s="5"/>
+      <c r="A920" s="3"/>
     </row>
     <row r="921">
-      <c r="A921" s="5"/>
+      <c r="A921" s="3"/>
     </row>
     <row r="922">
-      <c r="A922" s="5"/>
+      <c r="A922" s="3"/>
     </row>
     <row r="923">
-      <c r="A923" s="5"/>
+      <c r="A923" s="3"/>
     </row>
     <row r="924">
-      <c r="A924" s="5"/>
+      <c r="A924" s="3"/>
     </row>
     <row r="925">
-      <c r="A925" s="5"/>
+      <c r="A925" s="3"/>
     </row>
     <row r="926">
-      <c r="A926" s="5"/>
+      <c r="A926" s="3"/>
     </row>
     <row r="927">
-      <c r="A927" s="5"/>
+      <c r="A927" s="3"/>
     </row>
     <row r="928">
-      <c r="A928" s="5"/>
+      <c r="A928" s="3"/>
     </row>
     <row r="929">
-      <c r="A929" s="5"/>
+      <c r="A929" s="3"/>
     </row>
     <row r="930">
-      <c r="A930" s="5"/>
+      <c r="A930" s="3"/>
     </row>
     <row r="931">
-      <c r="A931" s="5"/>
+      <c r="A931" s="3"/>
     </row>
     <row r="932">
-      <c r="A932" s="5"/>
+      <c r="A932" s="3"/>
     </row>
     <row r="933">
-      <c r="A933" s="5"/>
+      <c r="A933" s="3"/>
     </row>
     <row r="934">
-      <c r="A934" s="5"/>
+      <c r="A934" s="3"/>
     </row>
     <row r="935">
-      <c r="A935" s="5"/>
+      <c r="A935" s="3"/>
     </row>
     <row r="936">
-      <c r="A936" s="5"/>
+      <c r="A936" s="3"/>
     </row>
     <row r="937">
-      <c r="A937" s="5"/>
+      <c r="A937" s="3"/>
     </row>
     <row r="938">
-      <c r="A938" s="5"/>
+      <c r="A938" s="3"/>
     </row>
     <row r="939">
-      <c r="A939" s="5"/>
+      <c r="A939" s="3"/>
     </row>
     <row r="940">
-      <c r="A940" s="5"/>
+      <c r="A940" s="3"/>
     </row>
     <row r="941">
-      <c r="A941" s="5"/>
+      <c r="A941" s="3"/>
     </row>
     <row r="942">
-      <c r="A942" s="5"/>
+      <c r="A942" s="3"/>
     </row>
     <row r="943">
-      <c r="A943" s="5"/>
+      <c r="A943" s="3"/>
     </row>
     <row r="944">
-      <c r="A944" s="5"/>
+      <c r="A944" s="3"/>
     </row>
     <row r="945">
-      <c r="A945" s="5"/>
+      <c r="A945" s="3"/>
     </row>
     <row r="946">
-      <c r="A946" s="5"/>
+      <c r="A946" s="3"/>
     </row>
     <row r="947">
-      <c r="A947" s="5"/>
+      <c r="A947" s="3"/>
     </row>
     <row r="948">
-      <c r="A948" s="5"/>
+      <c r="A948" s="3"/>
     </row>
     <row r="949">
-      <c r="A949" s="5"/>
+      <c r="A949" s="3"/>
     </row>
     <row r="950">
-      <c r="A950" s="5"/>
+      <c r="A950" s="3"/>
     </row>
     <row r="951">
-      <c r="A951" s="5"/>
+      <c r="A951" s="3"/>
     </row>
     <row r="952">
-      <c r="A952" s="5"/>
+      <c r="A952" s="3"/>
     </row>
     <row r="953">
-      <c r="A953" s="5"/>
+      <c r="A953" s="3"/>
     </row>
     <row r="954">
-      <c r="A954" s="5"/>
+      <c r="A954" s="3"/>
     </row>
     <row r="955">
-      <c r="A955" s="5"/>
+      <c r="A955" s="3"/>
     </row>
     <row r="956">
-      <c r="A956" s="5"/>
+      <c r="A956" s="3"/>
     </row>
     <row r="957">
-      <c r="A957" s="5"/>
+      <c r="A957" s="3"/>
     </row>
     <row r="958">
-      <c r="A958" s="5"/>
+      <c r="A958" s="3"/>
     </row>
     <row r="959">
-      <c r="A959" s="5"/>
+      <c r="A959" s="3"/>
     </row>
     <row r="960">
-      <c r="A960" s="5"/>
+      <c r="A960" s="3"/>
     </row>
     <row r="961">
-      <c r="A961" s="5"/>
+      <c r="A961" s="3"/>
     </row>
     <row r="962">
-      <c r="A962" s="5"/>
+      <c r="A962" s="3"/>
     </row>
     <row r="963">
-      <c r="A963" s="5"/>
+      <c r="A963" s="3"/>
     </row>
     <row r="964">
-      <c r="A964" s="5"/>
+      <c r="A964" s="3"/>
     </row>
     <row r="965">
-      <c r="A965" s="5"/>
+      <c r="A965" s="3"/>
     </row>
     <row r="966">
-      <c r="A966" s="5"/>
+      <c r="A966" s="3"/>
     </row>
     <row r="967">
-      <c r="A967" s="5"/>
+      <c r="A967" s="3"/>
     </row>
     <row r="968">
-      <c r="A968" s="5"/>
+      <c r="A968" s="3"/>
     </row>
     <row r="969">
-      <c r="A969" s="5"/>
+      <c r="A969" s="3"/>
     </row>
     <row r="970">
-      <c r="A970" s="5"/>
+      <c r="A970" s="3"/>
     </row>
     <row r="971">
-      <c r="A971" s="5"/>
+      <c r="A971" s="3"/>
     </row>
     <row r="972">
-      <c r="A972" s="5"/>
+      <c r="A972" s="3"/>
     </row>
     <row r="973">
-      <c r="A973" s="5"/>
+      <c r="A973" s="3"/>
     </row>
     <row r="974">
-      <c r="A974" s="5"/>
+      <c r="A974" s="3"/>
     </row>
     <row r="975">
-      <c r="A975" s="5"/>
+      <c r="A975" s="3"/>
     </row>
     <row r="976">
-      <c r="A976" s="5"/>
+      <c r="A976" s="3"/>
     </row>
     <row r="977">
-      <c r="A977" s="5"/>
+      <c r="A977" s="3"/>
     </row>
     <row r="978">
-      <c r="A978" s="5"/>
+      <c r="A978" s="3"/>
     </row>
     <row r="979">
-      <c r="A979" s="5"/>
+      <c r="A979" s="3"/>
     </row>
     <row r="980">
-      <c r="A980" s="5"/>
+      <c r="A980" s="3"/>
     </row>
     <row r="981">
-      <c r="A981" s="5"/>
+      <c r="A981" s="3"/>
     </row>
     <row r="982">
-      <c r="A982" s="5"/>
+      <c r="A982" s="3"/>
     </row>
     <row r="983">
-      <c r="A983" s="5"/>
+      <c r="A983" s="3"/>
     </row>
     <row r="984">
-      <c r="A984" s="5"/>
+      <c r="A984" s="3"/>
     </row>
     <row r="985">
-      <c r="A985" s="5"/>
+      <c r="A985" s="3"/>
     </row>
     <row r="986">
-      <c r="A986" s="5"/>
+      <c r="A986" s="3"/>
     </row>
     <row r="987">
-      <c r="A987" s="5"/>
+      <c r="A987" s="3"/>
     </row>
     <row r="988">
-      <c r="A988" s="5"/>
+      <c r="A988" s="3"/>
     </row>
     <row r="989">
-      <c r="A989" s="5"/>
+      <c r="A989" s="3"/>
     </row>
     <row r="990">
-      <c r="A990" s="5"/>
+      <c r="A990" s="3"/>
     </row>
     <row r="991">
-      <c r="A991" s="5"/>
+      <c r="A991" s="3"/>
     </row>
     <row r="992">
-      <c r="A992" s="5"/>
+      <c r="A992" s="3"/>
     </row>
     <row r="993">
-      <c r="A993" s="5"/>
+      <c r="A993" s="3"/>
     </row>
     <row r="994">
-      <c r="A994" s="5"/>
+      <c r="A994" s="3"/>
     </row>
     <row r="995">
-      <c r="A995" s="5"/>
+      <c r="A995" s="3"/>
     </row>
     <row r="996">
-      <c r="A996" s="5"/>
+      <c r="A996" s="3"/>
     </row>
     <row r="997">
-      <c r="A997" s="5"/>
+      <c r="A997" s="3"/>
     </row>
     <row r="998">
-      <c r="A998" s="5"/>
+      <c r="A998" s="3"/>
     </row>
     <row r="999">
-      <c r="A999" s="5"/>
+      <c r="A999" s="3"/>
     </row>
   </sheetData>
   <dataValidations>

--- a/words.xlsx
+++ b/words.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="363">
   <si>
     <t>Rodzaj</t>
   </si>
@@ -1089,10 +1089,16 @@
     <t>łazienka</t>
   </si>
   <si>
+    <t>ett badrum</t>
+  </si>
+  <si>
+    <t>lodowka</t>
+  </si>
+  <si>
+    <t>ett kylskåp</t>
+  </si>
+  <si>
     <t>badrum</t>
-  </si>
-  <si>
-    <t>lodowka</t>
   </si>
   <si>
     <t>kylskåp</t>
@@ -7460,7 +7466,7 @@
         <v>357</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
     </row>
     <row r="179">
@@ -7469,7 +7475,7 @@
         <v>359</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="180">
